--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,11 @@
     <sheet name="27" sheetId="10" r:id="rId7"/>
     <sheet name="29" sheetId="11" r:id="rId8"/>
     <sheet name="31" sheetId="12" r:id="rId9"/>
-    <sheet name="WindowComparison" sheetId="9" r:id="rId10"/>
+    <sheet name="Big Compariso" sheetId="13" r:id="rId10"/>
+    <sheet name="WindowComparison" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_15" localSheetId="1">'15'!$A$1:$O$7</definedName>
+    <definedName name="_15" localSheetId="1">'15'!$A$2:$O$8</definedName>
     <definedName name="_17" localSheetId="2">'17'!$A$1:$O$7</definedName>
     <definedName name="_21" localSheetId="3">'21'!$A$1:$O$7</definedName>
     <definedName name="_23" localSheetId="4">'23'!$A$1:$O$7</definedName>
@@ -32,7 +33,7 @@
     <definedName name="_27" localSheetId="6">'27'!$A$1:$O$7</definedName>
     <definedName name="_29" localSheetId="7">'29'!$A$1:$O$7</definedName>
     <definedName name="_31" localSheetId="8">'31'!$A$1:$O$7</definedName>
-    <definedName name="_9" localSheetId="0">'9'!$A$1:$O$7</definedName>
+    <definedName name="_9" localSheetId="0">'9'!$A$2:$O$8</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="15" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/15.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/15.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -70,7 +71,7 @@
     </textPr>
   </connection>
   <connection id="2" name="17" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/17.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/17.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -91,7 +92,7 @@
     </textPr>
   </connection>
   <connection id="3" name="21" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/21.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -112,7 +113,7 @@
     </textPr>
   </connection>
   <connection id="4" name="23" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/23.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/23.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -133,7 +134,7 @@
     </textPr>
   </connection>
   <connection id="5" name="25" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/25.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/25.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -154,7 +155,7 @@
     </textPr>
   </connection>
   <connection id="6" name="27" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/27.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/27.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -175,7 +176,7 @@
     </textPr>
   </connection>
   <connection id="7" name="29" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/29.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/29.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -196,7 +197,7 @@
     </textPr>
   </connection>
   <connection id="8" name="31" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/31.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/31.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -217,7 +218,7 @@
     </textPr>
   </connection>
   <connection id="9" name="9" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/9.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/9.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -241,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="26">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -317,12 +318,15 @@
   <si>
     <t xml:space="preserve"> 'C': 10}</t>
   </si>
+  <si>
+    <t>Window Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +338,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,14 +383,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,11 +577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1103631440"/>
-        <c:axId val="-1103627712"/>
+        <c:axId val="1068993680"/>
+        <c:axId val="1068995312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1103631440"/>
+        <c:axId val="1068993680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,12 +637,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1103627712"/>
+        <c:crossAx val="1068995312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1103627712"/>
+        <c:axId val="1068995312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1103631440"/>
+        <c:crossAx val="1068993680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1275,16 +1307,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1605,10 +1637,3894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="B1:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>20.011407613754201</v>
+      </c>
+      <c r="C3">
+        <v>6.9586582978566396</v>
+      </c>
+      <c r="D3">
+        <v>0.57551739321884599</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.56428885953324504</v>
+      </c>
+      <c r="K3">
+        <v>0.58696609423161605</v>
+      </c>
+      <c r="L3">
+        <v>0.57529722589167698</v>
+      </c>
+      <c r="M3">
+        <v>6.6213712053637103E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.0947485066617599E-2</v>
+      </c>
+      <c r="O3">
+        <v>9.2592511803137496E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>17.512186368306399</v>
+      </c>
+      <c r="C4">
+        <v>6.0752689838409397</v>
+      </c>
+      <c r="D4">
+        <v>0.684573609276383</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.70233377366798699</v>
+      </c>
+      <c r="K4">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L4">
+        <v>0.69022457067371201</v>
+      </c>
+      <c r="M4">
+        <v>0.34735646133122899</v>
+      </c>
+      <c r="N4">
+        <v>0.187092441460083</v>
+      </c>
+      <c r="O4">
+        <v>1.7276550722835699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>18.246418873469</v>
+      </c>
+      <c r="C5">
+        <v>6.2819520632425903</v>
+      </c>
+      <c r="D5">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="K5">
+        <v>0.65962131219726905</v>
+      </c>
+      <c r="L5">
+        <v>0.68802289740202505</v>
+      </c>
+      <c r="M5">
+        <v>0.33453706691152602</v>
+      </c>
+      <c r="N5">
+        <v>8.2750293090830998E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.80671406771718E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>185.014156341552</v>
+      </c>
+      <c r="C6">
+        <v>5.8276950518290196</v>
+      </c>
+      <c r="D6">
+        <v>0.68376632907676504</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.69969176574196301</v>
+      </c>
+      <c r="K6">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L6">
+        <v>0.69044473800088002</v>
+      </c>
+      <c r="M6">
+        <v>237.880146031207</v>
+      </c>
+      <c r="N6">
+        <v>0.13720638900330301</v>
+      </c>
+      <c r="O6">
+        <v>1.6423098714519298E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>22.3204987049102</v>
+      </c>
+      <c r="C7">
+        <v>6.9148486455281502</v>
+      </c>
+      <c r="D7">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="K7">
+        <v>0.66094231616028098</v>
+      </c>
+      <c r="L7">
+        <v>0.69044473800088002</v>
+      </c>
+      <c r="M7">
+        <v>2.4780843047894598</v>
+      </c>
+      <c r="N7">
+        <v>0.32551485283621501</v>
+      </c>
+      <c r="O7">
+        <v>1.6453242485030401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>18.862954616546599</v>
+      </c>
+      <c r="C8">
+        <v>6.2952094078063903</v>
+      </c>
+      <c r="D8">
+        <v>0.68831645383825002</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.70849845882870899</v>
+      </c>
+      <c r="K8">
+        <v>0.66512549537648602</v>
+      </c>
+      <c r="L8">
+        <v>0.69132540730955505</v>
+      </c>
+      <c r="M8">
+        <v>0.43179849017511301</v>
+      </c>
+      <c r="N8">
+        <v>0.164467756246616</v>
+      </c>
+      <c r="O8">
+        <v>1.78343085166641E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20.011407613754201</v>
+      </c>
+      <c r="C3">
+        <v>6.9586582978566396</v>
+      </c>
+      <c r="D3">
+        <v>0.57551739321884599</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.56428885953324504</v>
+      </c>
+      <c r="K3">
+        <v>0.58696609423161605</v>
+      </c>
+      <c r="L3">
+        <v>0.57529722589167698</v>
+      </c>
+      <c r="M3">
+        <v>6.6213712053637103E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.0947485066617599E-2</v>
+      </c>
+      <c r="O3">
+        <v>9.2592511803137496E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>17.512186368306399</v>
+      </c>
+      <c r="C4">
+        <v>6.0752689838409397</v>
+      </c>
+      <c r="D4">
+        <v>0.684573609276383</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.70233377366798699</v>
+      </c>
+      <c r="K4">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L4">
+        <v>0.69022457067371201</v>
+      </c>
+      <c r="M4">
+        <v>0.34735646133122899</v>
+      </c>
+      <c r="N4">
+        <v>0.187092441460083</v>
+      </c>
+      <c r="O4">
+        <v>1.7276550722835699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>18.246418873469</v>
+      </c>
+      <c r="C5">
+        <v>6.2819520632425903</v>
+      </c>
+      <c r="D5">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="K5">
+        <v>0.65962131219726905</v>
+      </c>
+      <c r="L5">
+        <v>0.68802289740202505</v>
+      </c>
+      <c r="M5">
+        <v>0.33453706691152602</v>
+      </c>
+      <c r="N5">
+        <v>8.2750293090830998E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.80671406771718E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>185.014156341552</v>
+      </c>
+      <c r="C6">
+        <v>5.8276950518290196</v>
+      </c>
+      <c r="D6">
+        <v>0.68376632907676504</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.69969176574196301</v>
+      </c>
+      <c r="K6">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L6">
+        <v>0.69044473800088002</v>
+      </c>
+      <c r="M6">
+        <v>237.880146031207</v>
+      </c>
+      <c r="N6">
+        <v>0.13720638900330301</v>
+      </c>
+      <c r="O6">
+        <v>1.6423098714519298E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>22.3204987049102</v>
+      </c>
+      <c r="C7">
+        <v>6.9148486455281502</v>
+      </c>
+      <c r="D7">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="K7">
+        <v>0.66094231616028098</v>
+      </c>
+      <c r="L7">
+        <v>0.69044473800088002</v>
+      </c>
+      <c r="M7">
+        <v>2.4780843047894598</v>
+      </c>
+      <c r="N7">
+        <v>0.32551485283621501</v>
+      </c>
+      <c r="O7">
+        <v>1.6453242485030401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>18.862954616546599</v>
+      </c>
+      <c r="C8">
+        <v>6.2952094078063903</v>
+      </c>
+      <c r="D8">
+        <v>0.68831645383825002</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.70849845882870899</v>
+      </c>
+      <c r="K8">
+        <v>0.66512549537648602</v>
+      </c>
+      <c r="L8">
+        <v>0.69132540730955505</v>
+      </c>
+      <c r="M8">
+        <v>0.43179849017511301</v>
+      </c>
+      <c r="N8">
+        <v>0.164467756246616</v>
+      </c>
+      <c r="O8">
+        <v>1.78343085166641E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>32.940556367238301</v>
+      </c>
+      <c r="C9">
+        <v>13.180381377538</v>
+      </c>
+      <c r="D9">
+        <v>0.58571847937765997</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0.57948040510788201</v>
+      </c>
+      <c r="K9">
+        <v>0.59225011008366302</v>
+      </c>
+      <c r="L9">
+        <v>0.585424922941435</v>
+      </c>
+      <c r="M9">
+        <v>0.26277848631885597</v>
+      </c>
+      <c r="N9">
+        <v>4.1825606036398802E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.21734113817002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>28.791900157928399</v>
+      </c>
+      <c r="C10">
+        <v>11.499002297719301</v>
+      </c>
+      <c r="D10">
+        <v>0.690958461764274</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="K10">
+        <v>0.66710700132100398</v>
+      </c>
+      <c r="L10">
+        <v>0.69220607661822897</v>
+      </c>
+      <c r="M10">
+        <v>0.44663272661414199</v>
+      </c>
+      <c r="N10">
+        <v>0.21897021663046001</v>
+      </c>
+      <c r="O10">
+        <v>1.8985806483847002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>30.040814956029202</v>
+      </c>
+      <c r="C11">
+        <v>12.962869644165</v>
+      </c>
+      <c r="D11">
+        <v>0.69161896374578002</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1E-3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0.71268163804491402</v>
+      </c>
+      <c r="K11">
+        <v>0.66952884191985895</v>
+      </c>
+      <c r="L11">
+        <v>0.69264641127256699</v>
+      </c>
+      <c r="M11">
+        <v>0.60541677933426297</v>
+      </c>
+      <c r="N11">
+        <v>1.4657334493651599</v>
+      </c>
+      <c r="O11">
+        <v>1.76320293720994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>49.129798253377203</v>
+      </c>
+      <c r="C12">
+        <v>18.966204643249501</v>
+      </c>
+      <c r="D12">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K12">
+        <v>0.67437252311756901</v>
+      </c>
+      <c r="L12">
+        <v>0.70409511228533594</v>
+      </c>
+      <c r="M12">
+        <v>1.6244200507758499</v>
+      </c>
+      <c r="N12">
+        <v>0.17835138844311499</v>
+      </c>
+      <c r="O12">
+        <v>1.9210852196653801E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>50.336471319198601</v>
+      </c>
+      <c r="C13">
+        <v>19.909400701522799</v>
+      </c>
+      <c r="D13">
+        <v>0.68846323205636195</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1E-3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="K13">
+        <v>0.66556583003082304</v>
+      </c>
+      <c r="L13">
+        <v>0.69110523998238604</v>
+      </c>
+      <c r="M13">
+        <v>1.3717881886162999</v>
+      </c>
+      <c r="N13">
+        <v>0.88830363956548397</v>
+      </c>
+      <c r="O13">
+        <v>1.77158329894197E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>57.671272595723401</v>
+      </c>
+      <c r="C14">
+        <v>19.615696986516301</v>
+      </c>
+      <c r="D14">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.72258916776750304</v>
+      </c>
+      <c r="K14">
+        <v>0.67811536767943603</v>
+      </c>
+      <c r="L14">
+        <v>0.71224130339057601</v>
+      </c>
+      <c r="M14">
+        <v>1.8391191289159401</v>
+      </c>
+      <c r="N14">
+        <v>0.54224093516232097</v>
+      </c>
+      <c r="O14">
+        <v>1.90016861228374E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>66.170728600000004</v>
+      </c>
+      <c r="C15" s="2">
+        <v>27.708956000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.58747981800000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.58036107400000003</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.59467195100000003</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.58740642899999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.55719928500000004</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.49935201499999998</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5.8426210000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>59.220228830000003</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.76937779</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.69389402600000005</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.71510347900000004</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.67040951100000001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.69616908899999996</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.224554659</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.446448925</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.8317015999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>58.932854810000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>23.74179427</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.69316013499999996</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.71422280900000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.669088507</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.69616908899999996</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.7188229420000001</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.22762458799999999</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1.8548434999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>55.345610379999997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>21.001345000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.70343460999999996</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.72148833099999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.68163804500000003</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.70717745499999995</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.67979027700000005</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.83812879699999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.6482678000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>55.276365200000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>21.89085197</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.69154557500000002</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.71312197300000002</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.66820783800000005</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.69330691300000002</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.024370056</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.80345004200000003</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.8378367999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>64.465471190000002</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22.035471439999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.70519594900000004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.72016732699999997</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.68141787799999998</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.71400264199999997</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.4239506340000001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.224264722</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1.7000947999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>72.981989622116004</v>
+      </c>
+      <c r="C32">
+        <v>31.3646740118662</v>
+      </c>
+      <c r="D32">
+        <v>0.590635549684426</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1E-3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>0.58718626155878395</v>
+      </c>
+      <c r="K32">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="L32">
+        <v>0.59048877146631396</v>
+      </c>
+      <c r="M32">
+        <v>0.52671648009232597</v>
+      </c>
+      <c r="N32">
+        <v>0.422092066373353</v>
+      </c>
+      <c r="O32">
+        <v>2.8781258698264201E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>64.415209611256898</v>
+      </c>
+      <c r="C33">
+        <v>26.788017352421999</v>
+      </c>
+      <c r="D33">
+        <v>0.69756348157933301</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.01</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0.71994715984147895</v>
+      </c>
+      <c r="K33">
+        <v>0.67349185380889398</v>
+      </c>
+      <c r="L33">
+        <v>0.699251431087626</v>
+      </c>
+      <c r="M33">
+        <v>0.64469129135459202</v>
+      </c>
+      <c r="N33">
+        <v>0.16805721952951599</v>
+      </c>
+      <c r="O33">
+        <v>1.90028198749937E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>65.085086345672593</v>
+      </c>
+      <c r="C34">
+        <v>28.357128620147702</v>
+      </c>
+      <c r="D34">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>0.71532364597093701</v>
+      </c>
+      <c r="K34">
+        <v>0.67239101717305105</v>
+      </c>
+      <c r="L34">
+        <v>0.69881109643328898</v>
+      </c>
+      <c r="M34">
+        <v>1.27427666867115</v>
+      </c>
+      <c r="N34">
+        <v>0.68980458760597196</v>
+      </c>
+      <c r="O34">
+        <v>1.7682054606130499E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>62.507666031519499</v>
+      </c>
+      <c r="C35">
+        <v>25.524518728256201</v>
+      </c>
+      <c r="D35">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>0.01</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0.72038749449581596</v>
+      </c>
+      <c r="K35">
+        <v>0.68075737560546001</v>
+      </c>
+      <c r="L35">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="M35">
+        <v>1.01815835077146</v>
+      </c>
+      <c r="N35">
+        <v>0.78181430810335995</v>
+      </c>
+      <c r="O35">
+        <v>1.69908071375168E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>61.620828866958597</v>
+      </c>
+      <c r="C36">
+        <v>26.3535909652709</v>
+      </c>
+      <c r="D36">
+        <v>0.69580214296198395</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>1E-3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>0.71400264200792596</v>
+      </c>
+      <c r="K36">
+        <v>0.67459269044473802</v>
+      </c>
+      <c r="L36">
+        <v>0.69881109643328898</v>
+      </c>
+      <c r="M36">
+        <v>1.1068378386737801</v>
+      </c>
+      <c r="N36">
+        <v>0.77348373171379903</v>
+      </c>
+      <c r="O36">
+        <v>1.6229118302145702E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>82.250488440195696</v>
+      </c>
+      <c r="C37">
+        <v>26.543932914733801</v>
+      </c>
+      <c r="D37">
+        <v>0.70622339644796694</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.724790841039189</v>
+      </c>
+      <c r="K37">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L37">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="M37">
+        <v>2.8634230589712701</v>
+      </c>
+      <c r="N37">
+        <v>0.53421071509289397</v>
+      </c>
+      <c r="O37">
+        <v>1.7756221563786499E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>79.308686574300097</v>
+      </c>
+      <c r="C38">
+        <v>34.063157717386801</v>
+      </c>
+      <c r="D38">
+        <v>0.59129605166593202</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1E-3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>0.585424922941435</v>
+      </c>
+      <c r="K38">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="L38">
+        <v>0.59202994275649401</v>
+      </c>
+      <c r="M38">
+        <v>0.197201373146594</v>
+      </c>
+      <c r="N38">
+        <v>0.126201928780728</v>
+      </c>
+      <c r="O38">
+        <v>4.52400851531559E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>69.203185319900498</v>
+      </c>
+      <c r="C39">
+        <v>29.680335680643701</v>
+      </c>
+      <c r="D39">
+        <v>0.69682959048877102</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.01</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0.71884632320563602</v>
+      </c>
+      <c r="K39">
+        <v>0.67283135182738796</v>
+      </c>
+      <c r="L39">
+        <v>0.69881109643328898</v>
+      </c>
+      <c r="M39">
+        <v>0.95940427487588598</v>
+      </c>
+      <c r="N39">
+        <v>0.280213918411513</v>
+      </c>
+      <c r="O39">
+        <v>1.88377134509711E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>70.509605010350498</v>
+      </c>
+      <c r="C40">
+        <v>30.340118646621701</v>
+      </c>
+      <c r="D40">
+        <v>0.69543519741670301</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>1E-3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>0.71818582122412999</v>
+      </c>
+      <c r="K40">
+        <v>0.67062967855570199</v>
+      </c>
+      <c r="L40">
+        <v>0.69749009247027705</v>
+      </c>
+      <c r="M40">
+        <v>1.0819416319555599</v>
+      </c>
+      <c r="N40">
+        <v>0.65753451470941304</v>
+      </c>
+      <c r="O40">
+        <v>1.9469011644762901E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>70.886246919631901</v>
+      </c>
+      <c r="C41">
+        <v>27.858318408330199</v>
+      </c>
+      <c r="D41">
+        <v>0.70262733010421197</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>0.01</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K41">
+        <v>0.67635402906208697</v>
+      </c>
+      <c r="L41">
+        <v>0.71070013210039595</v>
+      </c>
+      <c r="M41">
+        <v>1.6102048659556001</v>
+      </c>
+      <c r="N41">
+        <v>0.43047200949786801</v>
+      </c>
+      <c r="O41">
+        <v>1.9032556714229099E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>66.801719983418707</v>
+      </c>
+      <c r="C42">
+        <v>27.8163499832153</v>
+      </c>
+      <c r="D42">
+        <v>0.69602231028915296</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>1E-3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>0.71708498458828696</v>
+      </c>
+      <c r="K42">
+        <v>0.67107001321003901</v>
+      </c>
+      <c r="L42">
+        <v>0.69991193306913202</v>
+      </c>
+      <c r="M42">
+        <v>1.3054806367463501</v>
+      </c>
+      <c r="N42">
+        <v>0.28436774797373199</v>
+      </c>
+      <c r="O42">
+        <v>1.8985806483847002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>94.123725970586094</v>
+      </c>
+      <c r="C43">
+        <v>29.255850791931099</v>
+      </c>
+      <c r="D43">
+        <v>0.70387494495816805</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>0.01</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.72060766182298497</v>
+      </c>
+      <c r="K43">
+        <v>0.67899603698811095</v>
+      </c>
+      <c r="L43">
+        <v>0.712021136063408</v>
+      </c>
+      <c r="M43">
+        <v>3.9845925851661002</v>
+      </c>
+      <c r="N43">
+        <v>0.33033268112988401</v>
+      </c>
+      <c r="O43">
+        <v>1.79378956865422E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>85.783437967300401</v>
+      </c>
+      <c r="C44">
+        <v>36.836939891179398</v>
+      </c>
+      <c r="D44">
+        <v>0.59313077939233805</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>0.58784676354028997</v>
+      </c>
+      <c r="K44">
+        <v>0.59885512989872303</v>
+      </c>
+      <c r="L44">
+        <v>0.59269044473800003</v>
+      </c>
+      <c r="M44">
+        <v>0.18067313372258001</v>
+      </c>
+      <c r="N44">
+        <v>0.23774502786360199</v>
+      </c>
+      <c r="O44">
+        <v>4.5049197866498603E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>75.189435243606496</v>
+      </c>
+      <c r="C45">
+        <v>32.157245715459098</v>
+      </c>
+      <c r="D45">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0.71642448260678104</v>
+      </c>
+      <c r="K45">
+        <v>0.67437252311756901</v>
+      </c>
+      <c r="L45">
+        <v>0.69881109643328898</v>
+      </c>
+      <c r="M45">
+        <v>1.2985669111260201</v>
+      </c>
+      <c r="N45">
+        <v>0.50960051267811302</v>
+      </c>
+      <c r="O45">
+        <v>1.7242848872267399E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>76.578737576802496</v>
+      </c>
+      <c r="C46">
+        <v>32.015949090321797</v>
+      </c>
+      <c r="D46">
+        <v>0.69565536474387202</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>1E-3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>0.715103478643769</v>
+      </c>
+      <c r="K46">
+        <v>0.67349185380889398</v>
+      </c>
+      <c r="L46">
+        <v>0.69837076177895197</v>
+      </c>
+      <c r="M46">
+        <v>1.40806054857555</v>
+      </c>
+      <c r="N46">
+        <v>0.610538737932108</v>
+      </c>
+      <c r="O46">
+        <v>1.70960398171267E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>80.666984637578295</v>
+      </c>
+      <c r="C47">
+        <v>30.5815454324086</v>
+      </c>
+      <c r="D47">
+        <v>0.70270071921326804</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>0.01</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0.72126816380449099</v>
+      </c>
+      <c r="K47">
+        <v>0.67789520035226702</v>
+      </c>
+      <c r="L47">
+        <v>0.708938793483047</v>
+      </c>
+      <c r="M47">
+        <v>2.6150282040022801</v>
+      </c>
+      <c r="N47">
+        <v>0.64061370427439501</v>
+      </c>
+      <c r="O47">
+        <v>1.8248080585885101E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>72.014646689097006</v>
+      </c>
+      <c r="C48">
+        <v>30.524349848429299</v>
+      </c>
+      <c r="D48">
+        <v>0.697123146924996</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>1E-3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0.71752531924262397</v>
+      </c>
+      <c r="K48">
+        <v>0.67305151915455697</v>
+      </c>
+      <c r="L48">
+        <v>0.70079260237780705</v>
+      </c>
+      <c r="M48">
+        <v>1.64314296366404</v>
+      </c>
+      <c r="N48">
+        <v>0.67655342158207299</v>
+      </c>
+      <c r="O48">
+        <v>1.8340817885406299E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>107.629884004592</v>
+      </c>
+      <c r="C49">
+        <v>32.142752011616999</v>
+      </c>
+      <c r="D49">
+        <v>0.70306766475854898</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>0.01</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.71774548656979298</v>
+      </c>
+      <c r="K49">
+        <v>0.68053720827829101</v>
+      </c>
+      <c r="L49">
+        <v>0.71092029942756496</v>
+      </c>
+      <c r="M49">
+        <v>3.6954683266292698</v>
+      </c>
+      <c r="N49">
+        <v>0.115966543062252</v>
+      </c>
+      <c r="O49">
+        <v>1.6173268001823699E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>50.289266665776502</v>
+      </c>
+      <c r="C50">
+        <v>22.329266071319498</v>
+      </c>
+      <c r="D50">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1E-3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>0.58982826948480804</v>
+      </c>
+      <c r="K50">
+        <v>0.59863496257155402</v>
+      </c>
+      <c r="L50">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="M50">
+        <v>0.120597388159733</v>
+      </c>
+      <c r="N50">
+        <v>2.68156046451021E-2</v>
+      </c>
+      <c r="O50">
+        <v>3.59531739730392E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>44.517363150914498</v>
+      </c>
+      <c r="C51">
+        <v>19.459531068801802</v>
+      </c>
+      <c r="D51">
+        <v>0.69763687068838898</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0.01</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0.71532364597093701</v>
+      </c>
+      <c r="K51">
+        <v>0.67635402906208697</v>
+      </c>
+      <c r="L51">
+        <v>0.70123293703214395</v>
+      </c>
+      <c r="M51">
+        <v>0.60382680830323199</v>
+      </c>
+      <c r="N51">
+        <v>0.20911512721389799</v>
+      </c>
+      <c r="O51">
+        <v>1.6111207907688701E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>44.624171495437601</v>
+      </c>
+      <c r="C52">
+        <v>19.538538614908799</v>
+      </c>
+      <c r="D52">
+        <v>0.69382063701746599</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>1E-3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K52">
+        <v>0.67040951122853298</v>
+      </c>
+      <c r="L52">
+        <v>0.69771025979744605</v>
+      </c>
+      <c r="M52">
+        <v>0.63162989646847501</v>
+      </c>
+      <c r="N52">
+        <v>0.26599084203892798</v>
+      </c>
+      <c r="O52">
+        <v>1.7741655839711899E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>48.892688274383502</v>
+      </c>
+      <c r="C53">
+        <v>18.638858636220199</v>
+      </c>
+      <c r="D53">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>0.01</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0.71598414795244303</v>
+      </c>
+      <c r="K53">
+        <v>0.68295904887714598</v>
+      </c>
+      <c r="L53">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="M53">
+        <v>1.5782904165282099</v>
+      </c>
+      <c r="N53">
+        <v>0.323575529052327</v>
+      </c>
+      <c r="O53">
+        <v>1.4169610664644601E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>41.984801451365101</v>
+      </c>
+      <c r="C54">
+        <v>18.163538217544499</v>
+      </c>
+      <c r="D54">
+        <v>0.696169088507265</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>1E-3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="K54">
+        <v>0.67481285777190603</v>
+      </c>
+      <c r="L54">
+        <v>0.70013210039630103</v>
+      </c>
+      <c r="M54">
+        <v>0.79702353560519801</v>
+      </c>
+      <c r="N54">
+        <v>0.34286390695853097</v>
+      </c>
+      <c r="O54">
+        <v>1.6065678907644598E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>66.197283585866202</v>
+      </c>
+      <c r="C55">
+        <v>20.146304210027001</v>
+      </c>
+      <c r="D55">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>0.01</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.71378247468075695</v>
+      </c>
+      <c r="K55">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L55">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="M55">
+        <v>2.7571983803045299</v>
+      </c>
+      <c r="N55">
+        <v>0.26046881192697602</v>
+      </c>
+      <c r="O55">
+        <v>1.47900450769441E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>53.111356814702297</v>
+      </c>
+      <c r="C56">
+        <v>23.933893918991</v>
+      </c>
+      <c r="D56">
+        <v>0.59540584177307998</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1E-3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>0.58982826948480804</v>
+      </c>
+      <c r="K56">
+        <v>0.59995596653456595</v>
+      </c>
+      <c r="L56">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="M56">
+        <v>4.6611061743333397E-2</v>
+      </c>
+      <c r="N56">
+        <v>1.2555282762949101E-2</v>
+      </c>
+      <c r="O56">
+        <v>4.1979596788712902E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>47.098129113515199</v>
+      </c>
+      <c r="C57">
+        <v>20.8708790938059</v>
+      </c>
+      <c r="D57">
+        <v>0.69778364890650202</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0.01</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K57">
+        <v>0.67745486569793001</v>
+      </c>
+      <c r="L57">
+        <v>0.70343461030383003</v>
+      </c>
+      <c r="M57">
+        <v>0.57836636776746497</v>
+      </c>
+      <c r="N57">
+        <v>0.28598603048085303</v>
+      </c>
+      <c r="O57">
+        <v>1.48394883624494E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>47.204359213511097</v>
+      </c>
+      <c r="C58">
+        <v>20.955801963806099</v>
+      </c>
+      <c r="D58">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>0.71136063408190198</v>
+      </c>
+      <c r="K58">
+        <v>0.67525319242624304</v>
+      </c>
+      <c r="L58">
+        <v>0.70299427564949302</v>
+      </c>
+      <c r="M58">
+        <v>0.68646881905043</v>
+      </c>
+      <c r="N58">
+        <v>0.31681007952404899</v>
+      </c>
+      <c r="O58">
+        <v>1.54319689632181E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>53.949284315109203</v>
+      </c>
+      <c r="C59">
+        <v>20.269028504689501</v>
+      </c>
+      <c r="D59">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>0.01</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K59">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L59">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="M59">
+        <v>1.6475723808996601</v>
+      </c>
+      <c r="N59">
+        <v>0.28279824725887998</v>
+      </c>
+      <c r="O59">
+        <v>1.37545366192255E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>44.570408026377301</v>
+      </c>
+      <c r="C60">
+        <v>19.44646859169</v>
+      </c>
+      <c r="D60">
+        <v>0.69660942316160201</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1E-3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="K60">
+        <v>0.67503302509907503</v>
+      </c>
+      <c r="L60">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="M60">
+        <v>0.74650584537904796</v>
+      </c>
+      <c r="N60">
+        <v>0.37028543971283401</v>
+      </c>
+      <c r="O60">
+        <v>1.5634464138975401E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>29</v>
+      </c>
+      <c r="B61">
+        <v>94.568666378656999</v>
+      </c>
+      <c r="C61">
+        <v>22.136420090993202</v>
+      </c>
+      <c r="D61">
+        <v>0.70292088654043705</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>0.01</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.71290180537208203</v>
+      </c>
+      <c r="K61">
+        <v>0.68009687362395399</v>
+      </c>
+      <c r="L61">
+        <v>0.71576398062527502</v>
+      </c>
+      <c r="M61">
+        <v>2.8149678453500901</v>
+      </c>
+      <c r="N61">
+        <v>0.29165907653342499</v>
+      </c>
+      <c r="O61">
+        <v>1.6181258418385101E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>56.485668977101597</v>
+      </c>
+      <c r="C62">
+        <v>25.5462249914805</v>
+      </c>
+      <c r="D62">
+        <v>0.59555261999119302</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1E-3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>0.59202994275649401</v>
+      </c>
+      <c r="K62">
+        <v>0.598194627917217</v>
+      </c>
+      <c r="L62">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="M62">
+        <v>8.0046339948291495E-2</v>
+      </c>
+      <c r="N62">
+        <v>3.8257174370708802E-2</v>
+      </c>
+      <c r="O62">
+        <v>2.5926202455094499E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <v>50.442092418670597</v>
+      </c>
+      <c r="C63">
+        <v>22.392906188964801</v>
+      </c>
+      <c r="D63">
+        <v>0.69815059445178296</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0.01</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>0.71378247468075695</v>
+      </c>
+      <c r="K63">
+        <v>0.67701453104359299</v>
+      </c>
+      <c r="L63">
+        <v>0.70365477763099904</v>
+      </c>
+      <c r="M63">
+        <v>0.58017158654211198</v>
+      </c>
+      <c r="N63">
+        <v>0.28234515537962501</v>
+      </c>
+      <c r="O63">
+        <v>1.55068252538293E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>50.352616389592399</v>
+      </c>
+      <c r="C64">
+        <v>22.348772128423001</v>
+      </c>
+      <c r="D64">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>1E-3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>0.71114046675473297</v>
+      </c>
+      <c r="K64">
+        <v>0.67283135182738796</v>
+      </c>
+      <c r="L64">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="M64">
+        <v>0.75561689096226903</v>
+      </c>
+      <c r="N64">
+        <v>0.33203704687125202</v>
+      </c>
+      <c r="O64">
+        <v>1.6413913535548899E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>60.1429108778635</v>
+      </c>
+      <c r="C65">
+        <v>22.070303599039701</v>
+      </c>
+      <c r="D65">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>0.01</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K65">
+        <v>0.67767503302509902</v>
+      </c>
+      <c r="L65">
+        <v>0.70827829150154098</v>
+      </c>
+      <c r="M65">
+        <v>2.3367847279117901</v>
+      </c>
+      <c r="N65">
+        <v>0.37997430599276599</v>
+      </c>
+      <c r="O65">
+        <v>1.5506825253829201E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>47.665170828501303</v>
+      </c>
+      <c r="C66">
+        <v>20.755410989125501</v>
+      </c>
+      <c r="D66">
+        <v>0.69528841919859097</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>1E-3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>0.70937912813738402</v>
+      </c>
+      <c r="K66">
+        <v>0.6741523557904</v>
+      </c>
+      <c r="L66">
+        <v>0.70233377366798699</v>
+      </c>
+      <c r="M66">
+        <v>0.87706892831953798</v>
+      </c>
+      <c r="N66">
+        <v>0.31538857376162899</v>
+      </c>
+      <c r="O66">
+        <v>1.52197051481764E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>112.32906794548001</v>
+      </c>
+      <c r="C67">
+        <v>24.128863970438601</v>
+      </c>
+      <c r="D67">
+        <v>0.69998532217818799</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>0.01</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0.71025979744605905</v>
+      </c>
+      <c r="K67">
+        <v>0.677234698370761</v>
+      </c>
+      <c r="L67">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="M67">
+        <v>5.7358908761731602</v>
+      </c>
+      <c r="N67">
+        <v>0.37498814032383398</v>
+      </c>
+      <c r="O67">
+        <v>1.6112210773594701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>185.014156341552</v>
+      </c>
+      <c r="C3">
+        <v>5.8276950518290196</v>
+      </c>
+      <c r="D3">
+        <v>0.68376632907676504</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.69969176574196301</v>
+      </c>
+      <c r="K3">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L3">
+        <v>0.69044473800088002</v>
+      </c>
+      <c r="M3">
+        <v>237.880146031207</v>
+      </c>
+      <c r="N3">
+        <v>0.13720638900330301</v>
+      </c>
+      <c r="O3">
+        <v>1.6423098714519298E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>49.129798253377203</v>
+      </c>
+      <c r="C4">
+        <v>18.966204643249501</v>
+      </c>
+      <c r="D4">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K4">
+        <v>0.67437252311756901</v>
+      </c>
+      <c r="L4">
+        <v>0.70409511228533594</v>
+      </c>
+      <c r="M4">
+        <v>1.6244200507758499</v>
+      </c>
+      <c r="N4">
+        <v>0.17835138844311499</v>
+      </c>
+      <c r="O4">
+        <v>1.9210852196653801E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>55.345610380172701</v>
+      </c>
+      <c r="C5">
+        <v>21.001344998677499</v>
+      </c>
+      <c r="D5">
+        <v>0.70343461030383003</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.72148833113166</v>
+      </c>
+      <c r="K5">
+        <v>0.68163804491413404</v>
+      </c>
+      <c r="L5">
+        <v>0.70717745486569705</v>
+      </c>
+      <c r="M5">
+        <v>0.67979027652456603</v>
+      </c>
+      <c r="N5">
+        <v>0.83812879692982101</v>
+      </c>
+      <c r="O5">
+        <v>1.64826776134906E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>62.507666031519499</v>
+      </c>
+      <c r="C6">
+        <v>25.524518728256201</v>
+      </c>
+      <c r="D6">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.72038749449581596</v>
+      </c>
+      <c r="K6">
+        <v>0.68075737560546001</v>
+      </c>
+      <c r="L6">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="M6">
+        <v>1.01815835077146</v>
+      </c>
+      <c r="N6">
+        <v>0.78181430810335995</v>
+      </c>
+      <c r="O6">
+        <v>1.69908071375168E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>70.886246919631901</v>
+      </c>
+      <c r="C7">
+        <v>27.858318408330199</v>
+      </c>
+      <c r="D7">
+        <v>0.70262733010421197</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K7">
+        <v>0.67635402906208697</v>
+      </c>
+      <c r="L7">
+        <v>0.71070013210039595</v>
+      </c>
+      <c r="M7">
+        <v>1.6102048659556001</v>
+      </c>
+      <c r="N7">
+        <v>0.43047200949786801</v>
+      </c>
+      <c r="O7">
+        <v>1.9032556714229099E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>80.666984637578295</v>
+      </c>
+      <c r="C8">
+        <v>30.5815454324086</v>
+      </c>
+      <c r="D8">
+        <v>0.70270071921326804</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0.72126816380449099</v>
+      </c>
+      <c r="K8">
+        <v>0.67789520035226702</v>
+      </c>
+      <c r="L8">
+        <v>0.708938793483047</v>
+      </c>
+      <c r="M8">
+        <v>2.6150282040022801</v>
+      </c>
+      <c r="N8">
+        <v>0.64061370427439501</v>
+      </c>
+      <c r="O8">
+        <v>1.8248080585885101E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>48.892688274383502</v>
+      </c>
+      <c r="C9">
+        <v>18.638858636220199</v>
+      </c>
+      <c r="D9">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0.71598414795244303</v>
+      </c>
+      <c r="K9">
+        <v>0.68295904887714598</v>
+      </c>
+      <c r="L9">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="M9">
+        <v>1.5782904165282099</v>
+      </c>
+      <c r="N9">
+        <v>0.323575529052327</v>
+      </c>
+      <c r="O9">
+        <v>1.4169610664644601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>53.949284315109203</v>
+      </c>
+      <c r="C10">
+        <v>20.269028504689501</v>
+      </c>
+      <c r="D10">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K10">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L10">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="M10">
+        <v>1.6475723808996601</v>
+      </c>
+      <c r="N10">
+        <v>0.28279824725887998</v>
+      </c>
+      <c r="O10">
+        <v>1.37545366192255E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>60.1429108778635</v>
+      </c>
+      <c r="C11">
+        <v>22.070303599039701</v>
+      </c>
+      <c r="D11">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K11">
+        <v>0.67767503302509902</v>
+      </c>
+      <c r="L11">
+        <v>0.70827829150154098</v>
+      </c>
+      <c r="M11">
+        <v>2.3367847279117901</v>
+      </c>
+      <c r="N11">
+        <v>0.37997430599276599</v>
+      </c>
+      <c r="O11">
+        <v>1.5506825253829201E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.68376632907676504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.69976515485101998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.70343461030383003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.70424189050344899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.70262733010421197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.70270071921326804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0.702553940995156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0.701599882577425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.699471598414795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>32.940556367238301</v>
+      </c>
+      <c r="C3">
+        <v>13.180381377538</v>
+      </c>
+      <c r="D3">
+        <v>0.58571847937765997</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.57948040510788201</v>
+      </c>
+      <c r="K3">
+        <v>0.59225011008366302</v>
+      </c>
+      <c r="L3">
+        <v>0.585424922941435</v>
+      </c>
+      <c r="M3">
+        <v>0.26277848631885597</v>
+      </c>
+      <c r="N3">
+        <v>4.1825606036398802E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.21734113817002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>28.791900157928399</v>
+      </c>
+      <c r="C4">
+        <v>11.499002297719301</v>
+      </c>
+      <c r="D4">
+        <v>0.690958461764274</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="K4">
+        <v>0.66710700132100398</v>
+      </c>
+      <c r="L4">
+        <v>0.69220607661822897</v>
+      </c>
+      <c r="M4">
+        <v>0.44663272661414199</v>
+      </c>
+      <c r="N4">
+        <v>0.21897021663046001</v>
+      </c>
+      <c r="O4">
+        <v>1.8985806483847002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>30.040814956029202</v>
+      </c>
+      <c r="C5">
+        <v>12.962869644165</v>
+      </c>
+      <c r="D5">
+        <v>0.69161896374578002</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.71268163804491402</v>
+      </c>
+      <c r="K5">
+        <v>0.66952884191985895</v>
+      </c>
+      <c r="L5">
+        <v>0.69264641127256699</v>
+      </c>
+      <c r="M5">
+        <v>0.60541677933426297</v>
+      </c>
+      <c r="N5">
+        <v>1.4657334493651599</v>
+      </c>
+      <c r="O5">
+        <v>1.76320293720994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>49.129798253377203</v>
+      </c>
+      <c r="C6">
+        <v>18.966204643249501</v>
+      </c>
+      <c r="D6">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K6">
+        <v>0.67437252311756901</v>
+      </c>
+      <c r="L6">
+        <v>0.70409511228533594</v>
+      </c>
+      <c r="M6">
+        <v>1.6244200507758499</v>
+      </c>
+      <c r="N6">
+        <v>0.17835138844311499</v>
+      </c>
+      <c r="O6">
+        <v>1.9210852196653801E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>50.336471319198601</v>
+      </c>
+      <c r="C7">
+        <v>19.909400701522799</v>
+      </c>
+      <c r="D7">
+        <v>0.68846323205636195</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="K7">
+        <v>0.66556583003082304</v>
+      </c>
+      <c r="L7">
+        <v>0.69110523998238604</v>
+      </c>
+      <c r="M7">
+        <v>1.3717881886162999</v>
+      </c>
+      <c r="N7">
+        <v>0.88830363956548397</v>
+      </c>
+      <c r="O7">
+        <v>1.77158329894197E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>57.671272595723401</v>
+      </c>
+      <c r="C8">
+        <v>19.615696986516301</v>
+      </c>
+      <c r="D8">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.72258916776750304</v>
+      </c>
+      <c r="K8">
+        <v>0.67811536767943603</v>
+      </c>
+      <c r="L8">
+        <v>0.71224130339057601</v>
+      </c>
+      <c r="M8">
+        <v>1.8391191289159401</v>
+      </c>
+      <c r="N8">
+        <v>0.54224093516232097</v>
+      </c>
+      <c r="O8">
+        <v>1.90016861228374E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
+      <selection activeCell="B1" sqref="B1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.011407613754201</v>
+        <v>66.170728603998796</v>
       </c>
       <c r="C2">
-        <v>6.9586582978566396</v>
+        <v>27.708956003189002</v>
       </c>
       <c r="D2">
-        <v>0.57551739321884599</v>
+        <v>0.58747981799500903</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1698,22 +5614,22 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.56428885953324504</v>
+        <v>0.58036107441655604</v>
       </c>
       <c r="K2">
-        <v>0.58696609423161605</v>
+        <v>0.59467195068251799</v>
       </c>
       <c r="L2">
-        <v>0.57529722589167698</v>
+        <v>0.58740642888595296</v>
       </c>
       <c r="M2">
-        <v>6.6213712053637103E-2</v>
+        <v>0.55719928456669598</v>
       </c>
       <c r="N2">
-        <v>2.0947485066617599E-2</v>
+        <v>0.49935201485334402</v>
       </c>
       <c r="O2">
-        <v>9.2592511803137496E-3</v>
+        <v>5.8426212351372899E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1721,13 +5637,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.512186368306399</v>
+        <v>59.220228830973298</v>
       </c>
       <c r="C3">
-        <v>6.0752689838409397</v>
+        <v>22.769377787907899</v>
       </c>
       <c r="D3">
-        <v>0.684573609276383</v>
+        <v>0.69389402612652196</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1742,25 +5658,25 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0.70233377366798699</v>
+        <v>0.715103478643769</v>
       </c>
       <c r="K3">
-        <v>0.66116248348744999</v>
+        <v>0.67040951122853298</v>
       </c>
       <c r="L3">
-        <v>0.69022457067371201</v>
+        <v>0.696169088507265</v>
       </c>
       <c r="M3">
-        <v>0.34735646133122899</v>
+        <v>1.2245546594866901</v>
       </c>
       <c r="N3">
-        <v>0.187092441460083</v>
+        <v>0.44644892480675902</v>
       </c>
       <c r="O3">
-        <v>1.7276550722835699E-2</v>
+        <v>1.8317015995256699E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1768,13 +5684,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.246418873469</v>
+        <v>58.932854811350502</v>
       </c>
       <c r="C4">
-        <v>6.2819520632425903</v>
+        <v>23.741794268290199</v>
       </c>
       <c r="D4">
-        <v>0.683619550858652</v>
+        <v>0.69316013503595997</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1792,22 +5708,22 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.70321444297666202</v>
+        <v>0.71422280933509397</v>
       </c>
       <c r="K4">
-        <v>0.65962131219726905</v>
+        <v>0.66908850726552105</v>
       </c>
       <c r="L4">
-        <v>0.68802289740202505</v>
+        <v>0.696169088507265</v>
       </c>
       <c r="M4">
-        <v>0.33453706691152602</v>
+        <v>2.7188229421060801</v>
       </c>
       <c r="N4">
-        <v>8.2750293090830998E-2</v>
+        <v>0.22762458837249699</v>
       </c>
       <c r="O4">
-        <v>1.80671406771718E-2</v>
+        <v>1.8548434912793701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1815,13 +5731,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>185.014156341552</v>
+        <v>55.345610380172701</v>
       </c>
       <c r="C5">
-        <v>5.8276950518290196</v>
+        <v>21.001344998677499</v>
       </c>
       <c r="D5">
-        <v>0.68376632907676504</v>
+        <v>0.70343461030383003</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1836,25 +5752,25 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0.69969176574196301</v>
+        <v>0.72148833113166</v>
       </c>
       <c r="K5">
-        <v>0.66116248348744999</v>
+        <v>0.68163804491413404</v>
       </c>
       <c r="L5">
-        <v>0.69044473800088002</v>
+        <v>0.70717745486569705</v>
       </c>
       <c r="M5">
-        <v>237.880146031207</v>
+        <v>0.67979027652456603</v>
       </c>
       <c r="N5">
-        <v>0.13720638900330301</v>
+        <v>0.83812879692982101</v>
       </c>
       <c r="O5">
-        <v>1.6423098714519298E-2</v>
+        <v>1.64826776134906E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1862,13 +5778,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.3204987049102</v>
+        <v>55.276365200678498</v>
       </c>
       <c r="C6">
-        <v>6.9148486455281502</v>
+        <v>21.890851974487301</v>
       </c>
       <c r="D6">
-        <v>0.683619550858652</v>
+        <v>0.69154557463672395</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1883,25 +5799,25 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>0.699471598414795</v>
+        <v>0.71312197269925104</v>
       </c>
       <c r="K6">
-        <v>0.66094231616028098</v>
+        <v>0.66820783795684702</v>
       </c>
       <c r="L6">
-        <v>0.69044473800088002</v>
+        <v>0.69330691325407301</v>
       </c>
       <c r="M6">
-        <v>2.4780843047894598</v>
+        <v>1.0243700560047</v>
       </c>
       <c r="N6">
-        <v>0.32551485283621501</v>
+        <v>0.80345004213200699</v>
       </c>
       <c r="O6">
-        <v>1.6453242485030401E-2</v>
+        <v>1.83783679037509E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1909,13 +5825,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.862954616546599</v>
+        <v>64.465471188227298</v>
       </c>
       <c r="C7">
-        <v>6.2952094078063903</v>
+        <v>22.035471439361501</v>
       </c>
       <c r="D7">
-        <v>0.68831645383825002</v>
+        <v>0.70519594892117998</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1933,22 +5849,22 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.70849845882870899</v>
+        <v>0.72016732716864795</v>
       </c>
       <c r="K7">
-        <v>0.66512549537648602</v>
+        <v>0.68141787758696604</v>
       </c>
       <c r="L7">
-        <v>0.69132540730955505</v>
+        <v>0.71400264200792596</v>
       </c>
       <c r="M7">
-        <v>0.43179849017511301</v>
+        <v>2.4239506342597399</v>
       </c>
       <c r="N7">
-        <v>0.164467756246616</v>
+        <v>0.22426472246985901</v>
       </c>
       <c r="O7">
-        <v>1.78343085166641E-2</v>
+        <v>1.70009478767887E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1956,583 +5872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>185.014156341552</v>
-      </c>
-      <c r="C3">
-        <v>5.8276950518290196</v>
-      </c>
-      <c r="D3">
-        <v>0.68376632907676504</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.69969176574196301</v>
-      </c>
-      <c r="K3">
-        <v>0.66116248348744999</v>
-      </c>
-      <c r="L3">
-        <v>0.69044473800088002</v>
-      </c>
-      <c r="M3">
-        <v>237.880146031207</v>
-      </c>
-      <c r="N3">
-        <v>0.13720638900330301</v>
-      </c>
-      <c r="O3">
-        <v>1.6423098714519298E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>49.129798253377203</v>
-      </c>
-      <c r="C4">
-        <v>18.966204643249501</v>
-      </c>
-      <c r="D4">
-        <v>0.69976515485101998</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>0.72082782915015398</v>
-      </c>
-      <c r="K4">
-        <v>0.67437252311756901</v>
-      </c>
-      <c r="L4">
-        <v>0.70409511228533594</v>
-      </c>
-      <c r="M4">
-        <v>1.6244200507758499</v>
-      </c>
-      <c r="N4">
-        <v>0.17835138844311499</v>
-      </c>
-      <c r="O4">
-        <v>1.9210852196653801E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>55.345610380172701</v>
-      </c>
-      <c r="C5">
-        <v>21.001344998677499</v>
-      </c>
-      <c r="D5">
-        <v>0.70343461030383003</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.72148833113166</v>
-      </c>
-      <c r="K5">
-        <v>0.68163804491413404</v>
-      </c>
-      <c r="L5">
-        <v>0.70717745486569705</v>
-      </c>
-      <c r="M5">
-        <v>0.67979027652456603</v>
-      </c>
-      <c r="N5">
-        <v>0.83812879692982101</v>
-      </c>
-      <c r="O5">
-        <v>1.64826776134906E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>62.507666031519499</v>
-      </c>
-      <c r="C6">
-        <v>25.524518728256201</v>
-      </c>
-      <c r="D6">
-        <v>0.70424189050344899</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>0.72038749449581596</v>
-      </c>
-      <c r="K6">
-        <v>0.68075737560546001</v>
-      </c>
-      <c r="L6">
-        <v>0.71158080140906999</v>
-      </c>
-      <c r="M6">
-        <v>1.01815835077146</v>
-      </c>
-      <c r="N6">
-        <v>0.78181430810335995</v>
-      </c>
-      <c r="O6">
-        <v>1.69908071375168E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>70.886246919631901</v>
-      </c>
-      <c r="C7">
-        <v>27.858318408330199</v>
-      </c>
-      <c r="D7">
-        <v>0.70262733010421197</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0.72082782915015398</v>
-      </c>
-      <c r="K7">
-        <v>0.67635402906208697</v>
-      </c>
-      <c r="L7">
-        <v>0.71070013210039595</v>
-      </c>
-      <c r="M7">
-        <v>1.6102048659556001</v>
-      </c>
-      <c r="N7">
-        <v>0.43047200949786801</v>
-      </c>
-      <c r="O7">
-        <v>1.9032556714229099E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>80.666984637578295</v>
-      </c>
-      <c r="C8">
-        <v>30.5815454324086</v>
-      </c>
-      <c r="D8">
-        <v>0.70270071921326804</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>0.01</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0.72126816380449099</v>
-      </c>
-      <c r="K8">
-        <v>0.67789520035226702</v>
-      </c>
-      <c r="L8">
-        <v>0.708938793483047</v>
-      </c>
-      <c r="M8">
-        <v>2.6150282040022801</v>
-      </c>
-      <c r="N8">
-        <v>0.64061370427439501</v>
-      </c>
-      <c r="O8">
-        <v>1.8248080585885101E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>48.892688274383502</v>
-      </c>
-      <c r="C9">
-        <v>18.638858636220199</v>
-      </c>
-      <c r="D9">
-        <v>0.702553940995156</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>0.01</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0.71598414795244303</v>
-      </c>
-      <c r="K9">
-        <v>0.68295904887714598</v>
-      </c>
-      <c r="L9">
-        <v>0.708718626155878</v>
-      </c>
-      <c r="M9">
-        <v>1.5782904165282099</v>
-      </c>
-      <c r="N9">
-        <v>0.323575529052327</v>
-      </c>
-      <c r="O9">
-        <v>1.4169610664644601E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>53.949284315109203</v>
-      </c>
-      <c r="C10">
-        <v>20.269028504689501</v>
-      </c>
-      <c r="D10">
-        <v>0.701599882577425</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>0.01</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>0.71334214002642005</v>
-      </c>
-      <c r="K10">
-        <v>0.68229854689563996</v>
-      </c>
-      <c r="L10">
-        <v>0.70915896081021501</v>
-      </c>
-      <c r="M10">
-        <v>1.6475723808996601</v>
-      </c>
-      <c r="N10">
-        <v>0.28279824725887998</v>
-      </c>
-      <c r="O10">
-        <v>1.37545366192255E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>60.1429108778635</v>
-      </c>
-      <c r="C11">
-        <v>22.070303599039701</v>
-      </c>
-      <c r="D11">
-        <v>0.699471598414795</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>0.71246147071774502</v>
-      </c>
-      <c r="K11">
-        <v>0.67767503302509902</v>
-      </c>
-      <c r="L11">
-        <v>0.70827829150154098</v>
-      </c>
-      <c r="M11">
-        <v>2.3367847279117901</v>
-      </c>
-      <c r="N11">
-        <v>0.37997430599276599</v>
-      </c>
-      <c r="O11">
-        <v>1.5506825253829201E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>0.68376632907676504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.69976515485101998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0.70343461030383003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>0.70424189050344899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0.70262733010421197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.70270071921326804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>0.702553940995156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>0.701599882577425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>0.699471598414795</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.940556367238301</v>
+        <v>72.981989622116004</v>
       </c>
       <c r="C2">
-        <v>13.180381377538</v>
+        <v>31.3646740118662</v>
       </c>
       <c r="D2">
-        <v>0.58571847937765997</v>
+        <v>0.590635549684426</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2622,22 +5967,22 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.57948040510788201</v>
+        <v>0.58718626155878395</v>
       </c>
       <c r="K2">
-        <v>0.59225011008366302</v>
+        <v>0.59423161602818098</v>
       </c>
       <c r="L2">
-        <v>0.585424922941435</v>
+        <v>0.59048877146631396</v>
       </c>
       <c r="M2">
-        <v>0.26277848631885597</v>
+        <v>0.52671648009232597</v>
       </c>
       <c r="N2">
-        <v>4.1825606036398802E-2</v>
+        <v>0.422092066373353</v>
       </c>
       <c r="O2">
-        <v>5.21734113817002E-3</v>
+        <v>2.8781258698264201E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2645,13 +5990,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.791900157928399</v>
+        <v>64.415209611256898</v>
       </c>
       <c r="C3">
-        <v>11.499002297719301</v>
+        <v>26.788017352421999</v>
       </c>
       <c r="D3">
-        <v>0.690958461764274</v>
+        <v>0.69756348157933301</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2666,25 +6011,25 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0.71356230735358805</v>
+        <v>0.71994715984147895</v>
       </c>
       <c r="K3">
-        <v>0.66710700132100398</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L3">
-        <v>0.69220607661822897</v>
+        <v>0.699251431087626</v>
       </c>
       <c r="M3">
-        <v>0.44663272661414199</v>
+        <v>0.64469129135459202</v>
       </c>
       <c r="N3">
-        <v>0.21897021663046001</v>
+        <v>0.16805721952951599</v>
       </c>
       <c r="O3">
-        <v>1.8985806483847002E-2</v>
+        <v>1.90028198749937E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2692,13 +6037,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.040814956029202</v>
+        <v>65.085086345672593</v>
       </c>
       <c r="C4">
-        <v>12.962869644165</v>
+        <v>28.357128620147702</v>
       </c>
       <c r="D4">
-        <v>0.69161896374578002</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2713,25 +6058,25 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0.71268163804491402</v>
+        <v>0.71532364597093701</v>
       </c>
       <c r="K4">
-        <v>0.66952884191985895</v>
+        <v>0.67239101717305105</v>
       </c>
       <c r="L4">
-        <v>0.69264641127256699</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M4">
-        <v>0.60541677933426297</v>
+        <v>1.27427666867115</v>
       </c>
       <c r="N4">
-        <v>1.4657334493651599</v>
+        <v>0.68980458760597196</v>
       </c>
       <c r="O4">
-        <v>1.76320293720994E-2</v>
+        <v>1.7682054606130499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2739,13 +6084,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.129798253377203</v>
+        <v>62.507666031519499</v>
       </c>
       <c r="C5">
-        <v>18.966204643249501</v>
+        <v>25.524518728256201</v>
       </c>
       <c r="D5">
-        <v>0.69976515485101998</v>
+        <v>0.70424189050344899</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2763,22 +6108,22 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.72082782915015398</v>
+        <v>0.72038749449581596</v>
       </c>
       <c r="K5">
-        <v>0.67437252311756901</v>
+        <v>0.68075737560546001</v>
       </c>
       <c r="L5">
-        <v>0.70409511228533594</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M5">
-        <v>1.6244200507758499</v>
+        <v>1.01815835077146</v>
       </c>
       <c r="N5">
-        <v>0.17835138844311499</v>
+        <v>0.78181430810335995</v>
       </c>
       <c r="O5">
-        <v>1.9210852196653801E-2</v>
+        <v>1.69908071375168E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2786,13 +6131,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50.336471319198601</v>
+        <v>61.620828866958597</v>
       </c>
       <c r="C6">
-        <v>19.909400701522799</v>
+        <v>26.3535909652709</v>
       </c>
       <c r="D6">
-        <v>0.68846323205636195</v>
+        <v>0.69580214296198395</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2807,25 +6152,25 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>0.708718626155878</v>
+        <v>0.71400264200792596</v>
       </c>
       <c r="K6">
-        <v>0.66556583003082304</v>
+        <v>0.67459269044473802</v>
       </c>
       <c r="L6">
-        <v>0.69110523998238604</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M6">
-        <v>1.3717881886162999</v>
+        <v>1.1068378386737801</v>
       </c>
       <c r="N6">
-        <v>0.88830363956548397</v>
+        <v>0.77348373171379903</v>
       </c>
       <c r="O6">
-        <v>1.77158329894197E-2</v>
+        <v>1.6229118302145702E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2833,13 +6178,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57.671272595723401</v>
+        <v>82.250488440195696</v>
       </c>
       <c r="C7">
-        <v>19.615696986516301</v>
+        <v>26.543932914733801</v>
       </c>
       <c r="D7">
-        <v>0.70431527961250495</v>
+        <v>0.70622339644796694</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2857,22 +6202,22 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.72258916776750304</v>
+        <v>0.724790841039189</v>
       </c>
       <c r="K7">
-        <v>0.67811536767943603</v>
+        <v>0.68229854689563996</v>
       </c>
       <c r="L7">
-        <v>0.71224130339057601</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M7">
-        <v>1.8391191289159401</v>
+        <v>2.8634230589712701</v>
       </c>
       <c r="N7">
-        <v>0.54224093516232097</v>
+        <v>0.53421071509289397</v>
       </c>
       <c r="O7">
-        <v>1.90016861228374E-2</v>
+        <v>1.7756221563786499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2880,12 +6225,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66.170728603998796</v>
+        <v>79.308686574300097</v>
       </c>
       <c r="C2">
-        <v>27.708956003189002</v>
+        <v>34.063157717386801</v>
       </c>
       <c r="D2">
-        <v>0.58747981799500903</v>
+        <v>0.59129605166593202</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2975,22 +6320,22 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.58036107441655604</v>
+        <v>0.585424922941435</v>
       </c>
       <c r="K2">
-        <v>0.59467195068251799</v>
+        <v>0.59643328929986705</v>
       </c>
       <c r="L2">
-        <v>0.58740642888595296</v>
+        <v>0.59202994275649401</v>
       </c>
       <c r="M2">
-        <v>0.55719928456669598</v>
+        <v>0.197201373146594</v>
       </c>
       <c r="N2">
-        <v>0.49935201485334402</v>
+        <v>0.126201928780728</v>
       </c>
       <c r="O2">
-        <v>5.8426212351372899E-3</v>
+        <v>4.52400851531559E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2998,13 +6343,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59.220228830973298</v>
+        <v>69.203185319900498</v>
       </c>
       <c r="C3">
-        <v>22.769377787907899</v>
+        <v>29.680335680643701</v>
       </c>
       <c r="D3">
-        <v>0.69389402612652196</v>
+        <v>0.69682959048877102</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3022,22 +6367,22 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0.715103478643769</v>
+        <v>0.71884632320563602</v>
       </c>
       <c r="K3">
-        <v>0.67040951122853298</v>
+        <v>0.67283135182738796</v>
       </c>
       <c r="L3">
-        <v>0.696169088507265</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M3">
-        <v>1.2245546594866901</v>
+        <v>0.95940427487588598</v>
       </c>
       <c r="N3">
-        <v>0.44644892480675902</v>
+        <v>0.280213918411513</v>
       </c>
       <c r="O3">
-        <v>1.8317015995256699E-2</v>
+        <v>1.88377134509711E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3045,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58.932854811350502</v>
+        <v>70.509605010350498</v>
       </c>
       <c r="C4">
-        <v>23.741794268290199</v>
+        <v>30.340118646621701</v>
       </c>
       <c r="D4">
-        <v>0.69316013503595997</v>
+        <v>0.69543519741670301</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -3066,25 +6411,25 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0.71422280933509397</v>
+        <v>0.71818582122412999</v>
       </c>
       <c r="K4">
-        <v>0.66908850726552105</v>
+        <v>0.67062967855570199</v>
       </c>
       <c r="L4">
-        <v>0.696169088507265</v>
+        <v>0.69749009247027705</v>
       </c>
       <c r="M4">
-        <v>2.7188229421060801</v>
+        <v>1.0819416319555599</v>
       </c>
       <c r="N4">
-        <v>0.22762458837249699</v>
+        <v>0.65753451470941304</v>
       </c>
       <c r="O4">
-        <v>1.8548434912793701E-2</v>
+        <v>1.9469011644762901E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3092,13 +6437,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.345610380172701</v>
+        <v>70.886246919631901</v>
       </c>
       <c r="C5">
-        <v>21.001344998677499</v>
+        <v>27.858318408330199</v>
       </c>
       <c r="D5">
-        <v>0.70343461030383003</v>
+        <v>0.70262733010421197</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -3116,22 +6461,22 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.72148833113166</v>
+        <v>0.72082782915015398</v>
       </c>
       <c r="K5">
-        <v>0.68163804491413404</v>
+        <v>0.67635402906208697</v>
       </c>
       <c r="L5">
-        <v>0.70717745486569705</v>
+        <v>0.71070013210039595</v>
       </c>
       <c r="M5">
-        <v>0.67979027652456603</v>
+        <v>1.6102048659556001</v>
       </c>
       <c r="N5">
-        <v>0.83812879692982101</v>
+        <v>0.43047200949786801</v>
       </c>
       <c r="O5">
-        <v>1.64826776134906E-2</v>
+        <v>1.9032556714229099E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3139,13 +6484,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55.276365200678498</v>
+        <v>66.801719983418707</v>
       </c>
       <c r="C6">
-        <v>21.890851974487301</v>
+        <v>27.8163499832153</v>
       </c>
       <c r="D6">
-        <v>0.69154557463672395</v>
+        <v>0.69602231028915296</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3160,25 +6505,25 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>0.71312197269925104</v>
+        <v>0.71708498458828696</v>
       </c>
       <c r="K6">
-        <v>0.66820783795684702</v>
+        <v>0.67107001321003901</v>
       </c>
       <c r="L6">
-        <v>0.69330691325407301</v>
+        <v>0.69991193306913202</v>
       </c>
       <c r="M6">
-        <v>1.0243700560047</v>
+        <v>1.3054806367463501</v>
       </c>
       <c r="N6">
-        <v>0.80345004213200699</v>
+        <v>0.28436774797373199</v>
       </c>
       <c r="O6">
-        <v>1.83783679037509E-2</v>
+        <v>1.8985806483847002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3186,13 +6531,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64.465471188227298</v>
+        <v>94.123725970586094</v>
       </c>
       <c r="C7">
-        <v>22.035471439361501</v>
+        <v>29.255850791931099</v>
       </c>
       <c r="D7">
-        <v>0.70519594892117998</v>
+        <v>0.70387494495816805</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3210,22 +6555,22 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.72016732716864795</v>
+        <v>0.72060766182298497</v>
       </c>
       <c r="K7">
-        <v>0.68141787758696604</v>
+        <v>0.67899603698811095</v>
       </c>
       <c r="L7">
-        <v>0.71400264200792596</v>
+        <v>0.712021136063408</v>
       </c>
       <c r="M7">
-        <v>2.4239506342597399</v>
+        <v>3.9845925851661002</v>
       </c>
       <c r="N7">
-        <v>0.22426472246985901</v>
+        <v>0.33033268112988401</v>
       </c>
       <c r="O7">
-        <v>1.70009478767887E-2</v>
+        <v>1.79378956865422E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3233,12 +6578,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="B5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3304,712 +6649,6 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72.981989622116004</v>
-      </c>
-      <c r="C2">
-        <v>31.3646740118662</v>
-      </c>
-      <c r="D2">
-        <v>0.590635549684426</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0.58718626155878395</v>
-      </c>
-      <c r="K2">
-        <v>0.59423161602818098</v>
-      </c>
-      <c r="L2">
-        <v>0.59048877146631396</v>
-      </c>
-      <c r="M2">
-        <v>0.52671648009232597</v>
-      </c>
-      <c r="N2">
-        <v>0.422092066373353</v>
-      </c>
-      <c r="O2">
-        <v>2.8781258698264201E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>64.415209611256898</v>
-      </c>
-      <c r="C3">
-        <v>26.788017352421999</v>
-      </c>
-      <c r="D3">
-        <v>0.69756348157933301</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.71994715984147895</v>
-      </c>
-      <c r="K3">
-        <v>0.67349185380889398</v>
-      </c>
-      <c r="L3">
-        <v>0.699251431087626</v>
-      </c>
-      <c r="M3">
-        <v>0.64469129135459202</v>
-      </c>
-      <c r="N3">
-        <v>0.16805721952951599</v>
-      </c>
-      <c r="O3">
-        <v>1.90028198749937E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>65.085086345672593</v>
-      </c>
-      <c r="C4">
-        <v>28.357128620147702</v>
-      </c>
-      <c r="D4">
-        <v>0.69550858652575898</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0.71532364597093701</v>
-      </c>
-      <c r="K4">
-        <v>0.67239101717305105</v>
-      </c>
-      <c r="L4">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M4">
-        <v>1.27427666867115</v>
-      </c>
-      <c r="N4">
-        <v>0.68980458760597196</v>
-      </c>
-      <c r="O4">
-        <v>1.7682054606130499E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>62.507666031519499</v>
-      </c>
-      <c r="C5">
-        <v>25.524518728256201</v>
-      </c>
-      <c r="D5">
-        <v>0.70424189050344899</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.72038749449581596</v>
-      </c>
-      <c r="K5">
-        <v>0.68075737560546001</v>
-      </c>
-      <c r="L5">
-        <v>0.71158080140906999</v>
-      </c>
-      <c r="M5">
-        <v>1.01815835077146</v>
-      </c>
-      <c r="N5">
-        <v>0.78181430810335995</v>
-      </c>
-      <c r="O5">
-        <v>1.69908071375168E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>61.620828866958597</v>
-      </c>
-      <c r="C6">
-        <v>26.3535909652709</v>
-      </c>
-      <c r="D6">
-        <v>0.69580214296198395</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0.71400264200792596</v>
-      </c>
-      <c r="K6">
-        <v>0.67459269044473802</v>
-      </c>
-      <c r="L6">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M6">
-        <v>1.1068378386737801</v>
-      </c>
-      <c r="N6">
-        <v>0.77348373171379903</v>
-      </c>
-      <c r="O6">
-        <v>1.6229118302145702E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>82.250488440195696</v>
-      </c>
-      <c r="C7">
-        <v>26.543932914733801</v>
-      </c>
-      <c r="D7">
-        <v>0.70622339644796694</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.724790841039189</v>
-      </c>
-      <c r="K7">
-        <v>0.68229854689563996</v>
-      </c>
-      <c r="L7">
-        <v>0.71158080140906999</v>
-      </c>
-      <c r="M7">
-        <v>2.8634230589712701</v>
-      </c>
-      <c r="N7">
-        <v>0.53421071509289397</v>
-      </c>
-      <c r="O7">
-        <v>1.7756221563786499E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>79.308686574300097</v>
-      </c>
-      <c r="C2">
-        <v>34.063157717386801</v>
-      </c>
-      <c r="D2">
-        <v>0.59129605166593202</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0.585424922941435</v>
-      </c>
-      <c r="K2">
-        <v>0.59643328929986705</v>
-      </c>
-      <c r="L2">
-        <v>0.59202994275649401</v>
-      </c>
-      <c r="M2">
-        <v>0.197201373146594</v>
-      </c>
-      <c r="N2">
-        <v>0.126201928780728</v>
-      </c>
-      <c r="O2">
-        <v>4.52400851531559E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>69.203185319900498</v>
-      </c>
-      <c r="C3">
-        <v>29.680335680643701</v>
-      </c>
-      <c r="D3">
-        <v>0.69682959048877102</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.71884632320563602</v>
-      </c>
-      <c r="K3">
-        <v>0.67283135182738796</v>
-      </c>
-      <c r="L3">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M3">
-        <v>0.95940427487588598</v>
-      </c>
-      <c r="N3">
-        <v>0.280213918411513</v>
-      </c>
-      <c r="O3">
-        <v>1.88377134509711E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>70.509605010350498</v>
-      </c>
-      <c r="C4">
-        <v>30.340118646621701</v>
-      </c>
-      <c r="D4">
-        <v>0.69543519741670301</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0.71818582122412999</v>
-      </c>
-      <c r="K4">
-        <v>0.67062967855570199</v>
-      </c>
-      <c r="L4">
-        <v>0.69749009247027705</v>
-      </c>
-      <c r="M4">
-        <v>1.0819416319555599</v>
-      </c>
-      <c r="N4">
-        <v>0.65753451470941304</v>
-      </c>
-      <c r="O4">
-        <v>1.9469011644762901E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>70.886246919631901</v>
-      </c>
-      <c r="C5">
-        <v>27.858318408330199</v>
-      </c>
-      <c r="D5">
-        <v>0.70262733010421197</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.72082782915015398</v>
-      </c>
-      <c r="K5">
-        <v>0.67635402906208697</v>
-      </c>
-      <c r="L5">
-        <v>0.71070013210039595</v>
-      </c>
-      <c r="M5">
-        <v>1.6102048659556001</v>
-      </c>
-      <c r="N5">
-        <v>0.43047200949786801</v>
-      </c>
-      <c r="O5">
-        <v>1.9032556714229099E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>66.801719983418707</v>
-      </c>
-      <c r="C6">
-        <v>27.8163499832153</v>
-      </c>
-      <c r="D6">
-        <v>0.69602231028915296</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0.71708498458828696</v>
-      </c>
-      <c r="K6">
-        <v>0.67107001321003901</v>
-      </c>
-      <c r="L6">
-        <v>0.69991193306913202</v>
-      </c>
-      <c r="M6">
-        <v>1.3054806367463501</v>
-      </c>
-      <c r="N6">
-        <v>0.28436774797373199</v>
-      </c>
-      <c r="O6">
-        <v>1.8985806483847002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>94.123725970586094</v>
-      </c>
-      <c r="C7">
-        <v>29.255850791931099</v>
-      </c>
-      <c r="D7">
-        <v>0.70387494495816805</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.72060766182298497</v>
-      </c>
-      <c r="K7">
-        <v>0.67899603698811095</v>
-      </c>
-      <c r="L7">
-        <v>0.712021136063408</v>
-      </c>
-      <c r="M7">
-        <v>3.9845925851661002</v>
-      </c>
-      <c r="N7">
-        <v>0.33033268112988401</v>
-      </c>
-      <c r="O7">
-        <v>1.79378956865422E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
         <v>85.783437967300401</v>
       </c>
       <c r="C2">
@@ -4297,7 +6936,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4649,7 +7288,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5001,7 +7640,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:O5"/>
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -9,30 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="3" r:id="rId1"/>
-    <sheet name="15" sheetId="4" r:id="rId2"/>
-    <sheet name="17" sheetId="8" r:id="rId3"/>
-    <sheet name="21" sheetId="6" r:id="rId4"/>
-    <sheet name="23" sheetId="7" r:id="rId5"/>
-    <sheet name="25" sheetId="5" r:id="rId6"/>
-    <sheet name="27" sheetId="10" r:id="rId7"/>
-    <sheet name="29" sheetId="11" r:id="rId8"/>
-    <sheet name="31" sheetId="12" r:id="rId9"/>
-    <sheet name="Big Compariso" sheetId="13" r:id="rId10"/>
-    <sheet name="WindowComparison" sheetId="9" r:id="rId11"/>
+    <sheet name="11" sheetId="16" r:id="rId2"/>
+    <sheet name="13" sheetId="17" r:id="rId3"/>
+    <sheet name="15" sheetId="4" r:id="rId4"/>
+    <sheet name="17" sheetId="8" r:id="rId5"/>
+    <sheet name="19" sheetId="15" r:id="rId6"/>
+    <sheet name="21" sheetId="6" r:id="rId7"/>
+    <sheet name="23" sheetId="7" r:id="rId8"/>
+    <sheet name="25" sheetId="5" r:id="rId9"/>
+    <sheet name="27" sheetId="10" r:id="rId10"/>
+    <sheet name="29" sheetId="11" r:id="rId11"/>
+    <sheet name="31" sheetId="12" r:id="rId12"/>
+    <sheet name="Big Compariso" sheetId="13" r:id="rId13"/>
+    <sheet name="WindowComparison" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_15" localSheetId="1">'15'!$A$2:$O$8</definedName>
-    <definedName name="_17" localSheetId="2">'17'!$A$1:$O$7</definedName>
-    <definedName name="_21" localSheetId="3">'21'!$A$1:$O$7</definedName>
-    <definedName name="_23" localSheetId="4">'23'!$A$1:$O$7</definedName>
-    <definedName name="_25" localSheetId="5">'25'!$A$1:$O$7</definedName>
-    <definedName name="_27" localSheetId="6">'27'!$A$1:$O$7</definedName>
-    <definedName name="_29" localSheetId="7">'29'!$A$1:$O$7</definedName>
-    <definedName name="_31" localSheetId="8">'31'!$A$1:$O$7</definedName>
+    <definedName name="_11_improved" localSheetId="1">'11'!$A$1:$O$7</definedName>
+    <definedName name="_13_improved" localSheetId="2">'13'!$A$1:$O$7</definedName>
+    <definedName name="_15" localSheetId="3">'15'!$A$2:$O$8</definedName>
+    <definedName name="_17" localSheetId="4">'17'!$A$1:$O$7</definedName>
+    <definedName name="_19_improved" localSheetId="5">'19'!$A$1:$O$7</definedName>
+    <definedName name="_21" localSheetId="6">'21'!$A$1:$O$7</definedName>
+    <definedName name="_23" localSheetId="7">'23'!$A$1:$O$7</definedName>
+    <definedName name="_25" localSheetId="8">'25'!$A$1:$O$7</definedName>
+    <definedName name="_27" localSheetId="9">'27'!$A$1:$O$7</definedName>
+    <definedName name="_29" localSheetId="10">'29'!$A$1:$O$7</definedName>
+    <definedName name="_31" localSheetId="11">'31'!$A$1:$O$7</definedName>
     <definedName name="_9" localSheetId="0">'9'!$A$2:$O$8</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -49,8 +55,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="15" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/15.csv" comma="1">
+  <connection id="1" name="11_improved" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/11_improved.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -70,8 +76,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="17" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/17.csv" comma="1">
+  <connection id="2" name="13_improved" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/13_improved.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -91,8 +97,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="21" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/21.csv" comma="1">
+  <connection id="3" name="15" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/15.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -112,8 +118,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="23" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/23.csv" comma="1">
+  <connection id="4" name="17" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/17.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -133,8 +139,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="25" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/25.csv" comma="1">
+  <connection id="5" name="19_improved" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/19_improved.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -154,8 +160,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="27" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/27.csv" comma="1">
+  <connection id="6" name="21" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/21.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -175,8 +181,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="29" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/29.csv" comma="1">
+  <connection id="7" name="23" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/23.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -196,8 +202,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="31" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/31.csv" comma="1">
+  <connection id="8" name="25" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/25.csv" comma="1">
       <textFields count="15">
         <textField/>
         <textField/>
@@ -217,7 +223,70 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="9" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="27" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/27.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="29" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/29.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="31" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/Datasets/GridScores/31.csv" comma="1">
+      <textFields count="15">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="9" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Bioinfo-Protein-Project/Project/General/9.csv" comma="1">
       <textFields count="15">
         <textField/>
@@ -242,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="26">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -1339,39 +1408,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="27" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="29" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="31" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="15" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="11_improved" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="17" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="13_improved" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="21" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="15" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="23" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="17" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="25" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="19_improved" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="27" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="21" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="29" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="23" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="31" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="25" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1995,10 +2076,1066 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O67"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>50.289266665776502</v>
+      </c>
+      <c r="C2">
+        <v>22.329266071319498</v>
+      </c>
+      <c r="D2">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.58982826948480804</v>
+      </c>
+      <c r="K2">
+        <v>0.59863496257155402</v>
+      </c>
+      <c r="L2">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="M2">
+        <v>0.120597388159733</v>
+      </c>
+      <c r="N2">
+        <v>2.68156046451021E-2</v>
+      </c>
+      <c r="O2">
+        <v>3.59531739730392E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44.517363150914498</v>
+      </c>
+      <c r="C3">
+        <v>19.459531068801802</v>
+      </c>
+      <c r="D3">
+        <v>0.69763687068838898</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.71532364597093701</v>
+      </c>
+      <c r="K3">
+        <v>0.67635402906208697</v>
+      </c>
+      <c r="L3">
+        <v>0.70123293703214395</v>
+      </c>
+      <c r="M3">
+        <v>0.60382680830323199</v>
+      </c>
+      <c r="N3">
+        <v>0.20911512721389799</v>
+      </c>
+      <c r="O3">
+        <v>1.6111207907688701E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>44.624171495437601</v>
+      </c>
+      <c r="C4">
+        <v>19.538538614908799</v>
+      </c>
+      <c r="D4">
+        <v>0.69382063701746599</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K4">
+        <v>0.67040951122853298</v>
+      </c>
+      <c r="L4">
+        <v>0.69771025979744605</v>
+      </c>
+      <c r="M4">
+        <v>0.63162989646847501</v>
+      </c>
+      <c r="N4">
+        <v>0.26599084203892798</v>
+      </c>
+      <c r="O4">
+        <v>1.7741655839711899E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48.892688274383502</v>
+      </c>
+      <c r="C5">
+        <v>18.638858636220199</v>
+      </c>
+      <c r="D5">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.71598414795244303</v>
+      </c>
+      <c r="K5">
+        <v>0.68295904887714598</v>
+      </c>
+      <c r="L5">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="M5">
+        <v>1.5782904165282099</v>
+      </c>
+      <c r="N5">
+        <v>0.323575529052327</v>
+      </c>
+      <c r="O5">
+        <v>1.4169610664644601E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>41.984801451365101</v>
+      </c>
+      <c r="C6">
+        <v>18.163538217544499</v>
+      </c>
+      <c r="D6">
+        <v>0.696169088507265</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="K6">
+        <v>0.67481285777190603</v>
+      </c>
+      <c r="L6">
+        <v>0.70013210039630103</v>
+      </c>
+      <c r="M6">
+        <v>0.79702353560519801</v>
+      </c>
+      <c r="N6">
+        <v>0.34286390695853097</v>
+      </c>
+      <c r="O6">
+        <v>1.6065678907644598E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66.197283585866202</v>
+      </c>
+      <c r="C7">
+        <v>20.146304210027001</v>
+      </c>
+      <c r="D7">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.71378247468075695</v>
+      </c>
+      <c r="K7">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L7">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="M7">
+        <v>2.7571983803045299</v>
+      </c>
+      <c r="N7">
+        <v>0.26046881192697602</v>
+      </c>
+      <c r="O7">
+        <v>1.47900450769441E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>53.111356814702297</v>
+      </c>
+      <c r="C2">
+        <v>23.933893918991</v>
+      </c>
+      <c r="D2">
+        <v>0.59540584177307998</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.58982826948480804</v>
+      </c>
+      <c r="K2">
+        <v>0.59995596653456595</v>
+      </c>
+      <c r="L2">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="M2">
+        <v>4.6611061743333397E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.2555282762949101E-2</v>
+      </c>
+      <c r="O2">
+        <v>4.1979596788712902E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>47.098129113515199</v>
+      </c>
+      <c r="C3">
+        <v>20.8708790938059</v>
+      </c>
+      <c r="D3">
+        <v>0.69778364890650202</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K3">
+        <v>0.67745486569793001</v>
+      </c>
+      <c r="L3">
+        <v>0.70343461030383003</v>
+      </c>
+      <c r="M3">
+        <v>0.57836636776746497</v>
+      </c>
+      <c r="N3">
+        <v>0.28598603048085303</v>
+      </c>
+      <c r="O3">
+        <v>1.48394883624494E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>47.204359213511097</v>
+      </c>
+      <c r="C4">
+        <v>20.955801963806099</v>
+      </c>
+      <c r="D4">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.71136063408190198</v>
+      </c>
+      <c r="K4">
+        <v>0.67525319242624304</v>
+      </c>
+      <c r="L4">
+        <v>0.70299427564949302</v>
+      </c>
+      <c r="M4">
+        <v>0.68646881905043</v>
+      </c>
+      <c r="N4">
+        <v>0.31681007952404899</v>
+      </c>
+      <c r="O4">
+        <v>1.54319689632181E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53.949284315109203</v>
+      </c>
+      <c r="C5">
+        <v>20.269028504689501</v>
+      </c>
+      <c r="D5">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K5">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L5">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="M5">
+        <v>1.6475723808996601</v>
+      </c>
+      <c r="N5">
+        <v>0.28279824725887998</v>
+      </c>
+      <c r="O5">
+        <v>1.37545366192255E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>44.570408026377301</v>
+      </c>
+      <c r="C6">
+        <v>19.44646859169</v>
+      </c>
+      <c r="D6">
+        <v>0.69660942316160201</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="K6">
+        <v>0.67503302509907503</v>
+      </c>
+      <c r="L6">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="M6">
+        <v>0.74650584537904796</v>
+      </c>
+      <c r="N6">
+        <v>0.37028543971283401</v>
+      </c>
+      <c r="O6">
+        <v>1.5634464138975401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>94.568666378656999</v>
+      </c>
+      <c r="C7">
+        <v>22.136420090993202</v>
+      </c>
+      <c r="D7">
+        <v>0.70292088654043705</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.71290180537208203</v>
+      </c>
+      <c r="K7">
+        <v>0.68009687362395399</v>
+      </c>
+      <c r="L7">
+        <v>0.71576398062527502</v>
+      </c>
+      <c r="M7">
+        <v>2.8149678453500901</v>
+      </c>
+      <c r="N7">
+        <v>0.29165907653342499</v>
+      </c>
+      <c r="O7">
+        <v>1.6181258418385101E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>56.485668977101597</v>
+      </c>
+      <c r="C2">
+        <v>25.5462249914805</v>
+      </c>
+      <c r="D2">
+        <v>0.59555261999119302</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.59202994275649401</v>
+      </c>
+      <c r="K2">
+        <v>0.598194627917217</v>
+      </c>
+      <c r="L2">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="M2">
+        <v>8.0046339948291495E-2</v>
+      </c>
+      <c r="N2">
+        <v>3.8257174370708802E-2</v>
+      </c>
+      <c r="O2">
+        <v>2.5926202455094499E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50.442092418670597</v>
+      </c>
+      <c r="C3">
+        <v>22.392906188964801</v>
+      </c>
+      <c r="D3">
+        <v>0.69815059445178296</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.71378247468075695</v>
+      </c>
+      <c r="K3">
+        <v>0.67701453104359299</v>
+      </c>
+      <c r="L3">
+        <v>0.70365477763099904</v>
+      </c>
+      <c r="M3">
+        <v>0.58017158654211198</v>
+      </c>
+      <c r="N3">
+        <v>0.28234515537962501</v>
+      </c>
+      <c r="O3">
+        <v>1.55068252538293E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.352616389592399</v>
+      </c>
+      <c r="C4">
+        <v>22.348772128423001</v>
+      </c>
+      <c r="D4">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0.71114046675473297</v>
+      </c>
+      <c r="K4">
+        <v>0.67283135182738796</v>
+      </c>
+      <c r="L4">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="M4">
+        <v>0.75561689096226903</v>
+      </c>
+      <c r="N4">
+        <v>0.33203704687125202</v>
+      </c>
+      <c r="O4">
+        <v>1.6413913535548899E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60.1429108778635</v>
+      </c>
+      <c r="C5">
+        <v>22.070303599039701</v>
+      </c>
+      <c r="D5">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K5">
+        <v>0.67767503302509902</v>
+      </c>
+      <c r="L5">
+        <v>0.70827829150154098</v>
+      </c>
+      <c r="M5">
+        <v>2.3367847279117901</v>
+      </c>
+      <c r="N5">
+        <v>0.37997430599276599</v>
+      </c>
+      <c r="O5">
+        <v>1.5506825253829201E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>47.665170828501303</v>
+      </c>
+      <c r="C6">
+        <v>20.755410989125501</v>
+      </c>
+      <c r="D6">
+        <v>0.69528841919859097</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.70937912813738402</v>
+      </c>
+      <c r="K6">
+        <v>0.6741523557904</v>
+      </c>
+      <c r="L6">
+        <v>0.70233377366798699</v>
+      </c>
+      <c r="M6">
+        <v>0.87706892831953798</v>
+      </c>
+      <c r="N6">
+        <v>0.31538857376162899</v>
+      </c>
+      <c r="O6">
+        <v>1.52197051481764E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>112.32906794548001</v>
+      </c>
+      <c r="C7">
+        <v>24.128863970438601</v>
+      </c>
+      <c r="D7">
+        <v>0.69998532217818799</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.71025979744605905</v>
+      </c>
+      <c r="K7">
+        <v>0.677234698370761</v>
+      </c>
+      <c r="L7">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="M7">
+        <v>5.7358908761731602</v>
+      </c>
+      <c r="N7">
+        <v>0.37498814032383398</v>
+      </c>
+      <c r="O7">
+        <v>1.6112210773594701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2331,16 +3468,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>32.940556367238301</v>
+        <v>22.482077280680301</v>
       </c>
       <c r="C9">
-        <v>13.180381377538</v>
+        <v>9.1489218870798705</v>
       </c>
       <c r="D9">
-        <v>0.58571847937765997</v>
+        <v>0.57911345956260096</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2358,36 +3495,36 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>0.57948040510788201</v>
+        <v>0.56935270805812399</v>
       </c>
       <c r="K9">
-        <v>0.59225011008366302</v>
+        <v>0.58784676354028997</v>
       </c>
       <c r="L9">
-        <v>0.585424922941435</v>
+        <v>0.58014090708938704</v>
       </c>
       <c r="M9">
-        <v>0.26277848631885597</v>
+        <v>0.30831974569950898</v>
       </c>
       <c r="N9">
-        <v>4.1825606036398802E-2</v>
+        <v>3.8174180957332597E-2</v>
       </c>
       <c r="O9">
-        <v>5.21734113817002E-3</v>
+        <v>7.5850404683423999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>28.791900157928399</v>
+        <v>19.1311819553375</v>
       </c>
       <c r="C10">
-        <v>11.499002297719301</v>
+        <v>7.7627926667531302</v>
       </c>
       <c r="D10">
-        <v>0.690958461764274</v>
+        <v>0.68648172611184499</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2402,39 +3539,39 @@
         <v>15</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0.71356230735358805</v>
+        <v>0.70431527961250495</v>
       </c>
       <c r="K10">
-        <v>0.66710700132100398</v>
+        <v>0.66226332012329303</v>
       </c>
       <c r="L10">
-        <v>0.69220607661822897</v>
+        <v>0.69286657859973499</v>
       </c>
       <c r="M10">
-        <v>0.44663272661414199</v>
+        <v>0.30759972076841402</v>
       </c>
       <c r="N10">
-        <v>0.21897021663046001</v>
+        <v>0.12005872909269399</v>
       </c>
       <c r="O10">
-        <v>1.8985806483847002E-2</v>
+        <v>1.77513676504031E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>30.040814956029202</v>
+        <v>20.0250260829925</v>
       </c>
       <c r="C11">
-        <v>12.962869644165</v>
+        <v>8.1796975930531808</v>
       </c>
       <c r="D11">
-        <v>0.69161896374578002</v>
+        <v>0.68450022016732703</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2449,39 +3586,39 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>0.71268163804491402</v>
+        <v>0.70299427564949302</v>
       </c>
       <c r="K11">
-        <v>0.66952884191985895</v>
+        <v>0.66116248348744999</v>
       </c>
       <c r="L11">
-        <v>0.69264641127256699</v>
+        <v>0.68934390136503698</v>
       </c>
       <c r="M11">
-        <v>0.60541677933426297</v>
+        <v>0.26746963664274698</v>
       </c>
       <c r="N11">
-        <v>1.4657334493651599</v>
+        <v>0.14312113080876099</v>
       </c>
       <c r="O11">
-        <v>1.76320293720994E-2</v>
+        <v>1.74178193149215E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>49.129798253377203</v>
+        <v>18.374215920766101</v>
       </c>
       <c r="C12">
-        <v>18.966204643249501</v>
+        <v>7.3404917716979901</v>
       </c>
       <c r="D12">
-        <v>0.69976515485101998</v>
+        <v>0.68699544987523797</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2499,36 +3636,36 @@
         <v>2</v>
       </c>
       <c r="J12">
-        <v>0.72082782915015398</v>
+        <v>0.70717745486569705</v>
       </c>
       <c r="K12">
-        <v>0.67437252311756901</v>
+        <v>0.66292382210479905</v>
       </c>
       <c r="L12">
-        <v>0.70409511228533594</v>
+        <v>0.69088507265521704</v>
       </c>
       <c r="M12">
-        <v>1.6244200507758499</v>
+        <v>0.199029629380016</v>
       </c>
       <c r="N12">
-        <v>0.17835138844311499</v>
+        <v>0.15360987080013</v>
       </c>
       <c r="O12">
-        <v>1.9210852196653801E-2</v>
+        <v>1.8274624978587301E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>50.336471319198601</v>
+        <v>19.026470899581899</v>
       </c>
       <c r="C13">
-        <v>19.909400701522799</v>
+        <v>7.6381085713704397</v>
       </c>
       <c r="D13">
-        <v>0.68846323205636195</v>
+        <v>0.68494055482166405</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2543,39 +3680,39 @@
         <v>14</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>0.708718626155878</v>
+        <v>0.70277410832232501</v>
       </c>
       <c r="K13">
-        <v>0.66556583003082304</v>
+        <v>0.66182298546895602</v>
       </c>
       <c r="L13">
-        <v>0.69110523998238604</v>
+        <v>0.69022457067371201</v>
       </c>
       <c r="M13">
-        <v>1.3717881886162999</v>
+        <v>0.27348138360021301</v>
       </c>
       <c r="N13">
-        <v>0.88830363956548397</v>
+        <v>0.12695867579317999</v>
       </c>
       <c r="O13">
-        <v>1.77158329894197E-2</v>
+        <v>1.7130659325342901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>57.671272595723401</v>
+        <v>18.667048136393198</v>
       </c>
       <c r="C14">
-        <v>19.615696986516301</v>
+        <v>7.2577070395151697</v>
       </c>
       <c r="D14">
-        <v>0.70431527961250495</v>
+        <v>0.69771025979744605</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -2593,1995 +3730,2841 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.72258916776750304</v>
+        <v>0.71312197269925104</v>
       </c>
       <c r="K14">
-        <v>0.67811536767943603</v>
+        <v>0.67701453104359299</v>
       </c>
       <c r="L14">
-        <v>0.71224130339057601</v>
+        <v>0.70299427564949302</v>
       </c>
       <c r="M14">
-        <v>1.8391191289159401</v>
+        <v>0.32489386198683501</v>
       </c>
       <c r="N14">
-        <v>0.54224093516232097</v>
+        <v>0.14135348941345</v>
       </c>
       <c r="O14">
-        <v>1.90016861228374E-2</v>
+        <v>1.5206960103249E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>66.170728600000004</v>
-      </c>
-      <c r="C15" s="2">
-        <v>27.708956000000001</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.58747981800000004</v>
-      </c>
-      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>25.802310705184901</v>
+      </c>
+      <c r="C15">
+        <v>10.808968623479201</v>
+      </c>
+      <c r="D15">
+        <v>0.58322324966974903</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>1E-3</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>6</v>
       </c>
-      <c r="J15" s="2">
-        <v>0.58036107400000003</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.59467195100000003</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.58740642899999995</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.55719928500000004</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.49935201499999998</v>
-      </c>
-      <c r="O15" s="2">
-        <v>5.8426210000000001E-3</v>
+      <c r="J15">
+        <v>0.57419638925583405</v>
+      </c>
+      <c r="K15">
+        <v>0.59048877146631396</v>
+      </c>
+      <c r="L15">
+        <v>0.58498458828709798</v>
+      </c>
+      <c r="M15">
+        <v>7.0616149313636398E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.6233248110452202E-2</v>
+      </c>
+      <c r="O15">
+        <v>6.7669375060813398E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>59.220228830000003</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22.76937779</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.69389402600000005</v>
-      </c>
-      <c r="E16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>22.256393988927201</v>
+      </c>
+      <c r="C16">
+        <v>9.2584842840830408</v>
+      </c>
+      <c r="D16">
+        <v>0.687655951856744</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>0.01</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.71510347900000004</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.67040951100000001</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.69616908899999996</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.224554659</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.446448925</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.8317015999999998E-2</v>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.70783795684720296</v>
+      </c>
+      <c r="K16">
+        <v>0.66424482606781099</v>
+      </c>
+      <c r="L16">
+        <v>0.69088507265521704</v>
+      </c>
+      <c r="M16">
+        <v>0.45792790608329798</v>
+      </c>
+      <c r="N16">
+        <v>0.203023812009025</v>
+      </c>
+      <c r="O16">
+        <v>1.79426991398665E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>58.932854810000002</v>
-      </c>
-      <c r="C17" s="2">
-        <v>23.74179427</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.69316013499999996</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>23.1117781798044</v>
+      </c>
+      <c r="C17">
+        <v>9.6155950228373204</v>
+      </c>
+      <c r="D17">
+        <v>0.68772934096579996</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.71422280900000001</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.669088507</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.69616908899999996</v>
-      </c>
-      <c r="M17" s="2">
-        <v>2.7188229420000001</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.22762458799999999</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.8548434999999999E-2</v>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0.70717745486569705</v>
+      </c>
+      <c r="K17">
+        <v>0.66468516072214801</v>
+      </c>
+      <c r="L17">
+        <v>0.69132540730955505</v>
+      </c>
+      <c r="M17">
+        <v>0.29880339798515698</v>
+      </c>
+      <c r="N17">
+        <v>0.13556388776977599</v>
+      </c>
+      <c r="O17">
+        <v>1.7532779495504702E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>55.345610379999997</v>
-      </c>
-      <c r="C18" s="2">
-        <v>21.001345000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.70343460999999996</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>20.9596690336863</v>
+      </c>
+      <c r="C18">
+        <v>8.5508293310801093</v>
+      </c>
+      <c r="D18">
+        <v>0.69389402612652196</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>0.01</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="2">
-        <v>0.72148833099999998</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.68163804500000003</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.70717745499999995</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.67979027700000005</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.83812879699999998</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1.6482678000000001E-2</v>
+      <c r="J18">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="K18">
+        <v>0.67459269044473802</v>
+      </c>
+      <c r="L18">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="M18">
+        <v>0.33728865664275998</v>
+      </c>
+      <c r="N18">
+        <v>0.16189204455213499</v>
+      </c>
+      <c r="O18">
+        <v>1.51434296454389E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>21.6681433518727</v>
+      </c>
+      <c r="C19">
+        <v>8.9272715250651</v>
+      </c>
+      <c r="D19">
+        <v>0.68692206076618201</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>55.276365200000001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>21.89085197</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.69154557500000002</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="2">
-        <v>5</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.71312197300000002</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.66820783800000005</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.69330691300000002</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1.024370056</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.80345004200000003</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1.8378367999999999E-2</v>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0.70739762219286595</v>
+      </c>
+      <c r="K19">
+        <v>0.66270365477763105</v>
+      </c>
+      <c r="L19">
+        <v>0.69066490532804903</v>
+      </c>
+      <c r="M19">
+        <v>0.36305308198456099</v>
+      </c>
+      <c r="N19">
+        <v>0.10932772527600899</v>
+      </c>
+      <c r="O19">
+        <v>1.84371788313588E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>22.0035888353983</v>
+      </c>
+      <c r="C20">
+        <v>8.6364574432372994</v>
+      </c>
+      <c r="D20">
+        <v>0.70108615881403202</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>64.465471190000002</v>
-      </c>
-      <c r="C20" s="2">
-        <v>22.035471439999998</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.70519594900000004</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.71774548656979298</v>
+      </c>
+      <c r="K20">
+        <v>0.68053720827829101</v>
+      </c>
+      <c r="L20">
+        <v>0.70497578159401098</v>
+      </c>
+      <c r="M20">
+        <v>0.34607716356431301</v>
+      </c>
+      <c r="N20">
+        <v>0.160096312273276</v>
+      </c>
+      <c r="O20">
+        <v>1.5437203273960301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>32.940556367238301</v>
+      </c>
+      <c r="C21">
+        <v>13.180381377538</v>
+      </c>
+      <c r="D21">
+        <v>0.58571847937765997</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0.57948040510788201</v>
+      </c>
+      <c r="K21">
+        <v>0.59225011008366302</v>
+      </c>
+      <c r="L21">
+        <v>0.585424922941435</v>
+      </c>
+      <c r="M21">
+        <v>0.26277848631885597</v>
+      </c>
+      <c r="N21">
+        <v>4.1825606036398802E-2</v>
+      </c>
+      <c r="O21">
+        <v>5.21734113817002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>28.791900157928399</v>
+      </c>
+      <c r="C22">
+        <v>11.499002297719301</v>
+      </c>
+      <c r="D22">
+        <v>0.690958461764274</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0.71356230735358805</v>
+      </c>
+      <c r="K22">
+        <v>0.66710700132100398</v>
+      </c>
+      <c r="L22">
+        <v>0.69220607661822897</v>
+      </c>
+      <c r="M22">
+        <v>0.44663272661414199</v>
+      </c>
+      <c r="N22">
+        <v>0.21897021663046001</v>
+      </c>
+      <c r="O22">
+        <v>1.8985806483847002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>30.040814956029202</v>
+      </c>
+      <c r="C23">
+        <v>12.962869644165</v>
+      </c>
+      <c r="D23">
+        <v>0.69161896374578002</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.71268163804491402</v>
+      </c>
+      <c r="K23">
+        <v>0.66952884191985895</v>
+      </c>
+      <c r="L23">
+        <v>0.69264641127256699</v>
+      </c>
+      <c r="M23">
+        <v>0.60541677933426297</v>
+      </c>
+      <c r="N23">
+        <v>1.4657334493651599</v>
+      </c>
+      <c r="O23">
+        <v>1.76320293720994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>49.129798253377203</v>
+      </c>
+      <c r="C24">
+        <v>18.966204643249501</v>
+      </c>
+      <c r="D24">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0.72082782915015398</v>
+      </c>
+      <c r="K24">
+        <v>0.67437252311756901</v>
+      </c>
+      <c r="L24">
+        <v>0.70409511228533594</v>
+      </c>
+      <c r="M24">
+        <v>1.6244200507758499</v>
+      </c>
+      <c r="N24">
+        <v>0.17835138844311499</v>
+      </c>
+      <c r="O24">
+        <v>1.9210852196653801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>50.336471319198601</v>
+      </c>
+      <c r="C25">
+        <v>19.909400701522799</v>
+      </c>
+      <c r="D25">
+        <v>0.68846323205636195</v>
+      </c>
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F25">
+        <v>1E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="K25">
+        <v>0.66556583003082304</v>
+      </c>
+      <c r="L25">
+        <v>0.69110523998238604</v>
+      </c>
+      <c r="M25">
+        <v>1.3717881886162999</v>
+      </c>
+      <c r="N25">
+        <v>0.88830363956548397</v>
+      </c>
+      <c r="O25">
+        <v>1.77158329894197E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>57.671272595723401</v>
+      </c>
+      <c r="C26">
+        <v>19.615696986516301</v>
+      </c>
+      <c r="D26">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>0.01</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="J20" s="2">
-        <v>0.72016732699999997</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.68141787799999998</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.71400264199999997</v>
-      </c>
-      <c r="M20" s="2">
-        <v>2.4239506340000001</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.224264722</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1.7000947999999998E-2</v>
+      <c r="J26">
+        <v>0.72258916776750304</v>
+      </c>
+      <c r="K26">
+        <v>0.67811536767943603</v>
+      </c>
+      <c r="L26">
+        <v>0.71224130339057601</v>
+      </c>
+      <c r="M26">
+        <v>1.8391191289159401</v>
+      </c>
+      <c r="N26">
+        <v>0.54224093516232097</v>
+      </c>
+      <c r="O26">
+        <v>1.90016861228374E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>66.170728600000004</v>
+      </c>
+      <c r="C27" s="2">
+        <v>27.708956000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.58747981800000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.58036107400000003</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.59467195100000003</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.58740642899999995</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.55719928500000004</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.49935201499999998</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5.8426210000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>59.220228830000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>22.76937779</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.69389402600000005</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.71510347900000004</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.67040951100000001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.69616908899999996</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.224554659</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.446448925</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.8317015999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>58.932854810000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>23.74179427</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.69316013499999996</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.71422280900000001</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.669088507</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.69616908899999996</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2.7188229420000001</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.22762458799999999</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.8548434999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>55.345610379999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>21.001345000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.70343460999999996</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.72148833099999998</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.68163804500000003</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.70717745499999995</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.67979027700000005</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.83812879699999998</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1.6482678000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>55.276365200000001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>21.89085197</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.69154557500000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.71312197300000002</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.66820783800000005</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.69330691300000002</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.024370056</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.80345004200000003</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.8378367999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>72.981989622116004</v>
-      </c>
-      <c r="C32">
-        <v>31.3646740118662</v>
-      </c>
-      <c r="D32">
-        <v>0.590635549684426</v>
-      </c>
-      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2">
+        <v>64.465471190000002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>22.035471439999998</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.70519594900000004</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>1E-3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32">
-        <v>6</v>
-      </c>
-      <c r="J32">
-        <v>0.58718626155878395</v>
-      </c>
-      <c r="K32">
-        <v>0.59423161602818098</v>
-      </c>
-      <c r="L32">
-        <v>0.59048877146631396</v>
-      </c>
-      <c r="M32">
-        <v>0.52671648009232597</v>
-      </c>
-      <c r="N32">
-        <v>0.422092066373353</v>
-      </c>
-      <c r="O32">
-        <v>2.8781258698264201E-3</v>
+      <c r="J32" s="2">
+        <v>0.72016732699999997</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.68141787799999998</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.71400264199999997</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2.4239506340000001</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.224264722</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.7000947999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>64.415209611256898</v>
+        <v>38.133126020431497</v>
       </c>
       <c r="C33">
-        <v>26.788017352421999</v>
+        <v>15.3772223790486</v>
       </c>
       <c r="D33">
-        <v>0.69756348157933301</v>
+        <v>0.58975488037575197</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>0.71994715984147895</v>
+        <v>0.58454425363275997</v>
       </c>
       <c r="K33">
-        <v>0.67349185380889398</v>
+        <v>0.59555261999119302</v>
       </c>
       <c r="L33">
-        <v>0.699251431087626</v>
+        <v>0.58916776750330202</v>
       </c>
       <c r="M33">
-        <v>0.64469129135459202</v>
+        <v>1.01442430498354</v>
       </c>
       <c r="N33">
-        <v>0.16805721952951599</v>
+        <v>0.52537473631993004</v>
       </c>
       <c r="O33">
-        <v>1.90028198749937E-2</v>
+        <v>4.5132810396365502E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>65.085086345672593</v>
+        <v>33.644562721252399</v>
       </c>
       <c r="C34">
-        <v>28.357128620147702</v>
+        <v>82.382948637008596</v>
       </c>
       <c r="D34">
-        <v>0.69550858652575898</v>
+        <v>0.697343314252165</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>0.71532364597093701</v>
+        <v>0.72016732716864795</v>
       </c>
       <c r="K34">
-        <v>0.67239101717305105</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L34">
-        <v>0.69881109643328898</v>
+        <v>0.69837076177895197</v>
       </c>
       <c r="M34">
-        <v>1.27427666867115</v>
+        <v>1.2744266396731601</v>
       </c>
       <c r="N34">
-        <v>0.68980458760597196</v>
+        <v>98.719586347082199</v>
       </c>
       <c r="O34">
-        <v>1.7682054606130499E-2</v>
+        <v>1.9069027062306801E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>62.507666031519499</v>
+        <v>33.593770027160602</v>
       </c>
       <c r="C35">
-        <v>25.524518728256201</v>
+        <v>13.4736449718475</v>
       </c>
       <c r="D35">
-        <v>0.70424189050344899</v>
+        <v>0.69411419345369096</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>0.72038749449581596</v>
+        <v>0.71466314398943198</v>
       </c>
       <c r="K35">
-        <v>0.68075737560546001</v>
+        <v>0.66952884191985895</v>
       </c>
       <c r="L35">
-        <v>0.71158080140906999</v>
+        <v>0.69815059445178296</v>
       </c>
       <c r="M35">
-        <v>1.01815835077146</v>
+        <v>0.307629139687288</v>
       </c>
       <c r="N35">
-        <v>0.78181430810335995</v>
+        <v>0.19765030364835801</v>
       </c>
       <c r="O35">
-        <v>1.69908071375168E-2</v>
+        <v>1.8645744922812998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>61.620828866958597</v>
+        <v>31.058151404062901</v>
       </c>
       <c r="C36">
-        <v>26.3535909652709</v>
+        <v>12.0565579732259</v>
       </c>
       <c r="D36">
-        <v>0.69580214296198395</v>
+        <v>0.70402172317627998</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0.71400264200792596</v>
+        <v>0.72214883311316602</v>
       </c>
       <c r="K36">
-        <v>0.67459269044473802</v>
+        <v>0.68295904887714598</v>
       </c>
       <c r="L36">
-        <v>0.69881109643328898</v>
+        <v>0.70695728753852904</v>
       </c>
       <c r="M36">
-        <v>1.1068378386737801</v>
+        <v>0.29050021277173099</v>
       </c>
       <c r="N36">
-        <v>0.77348373171379903</v>
+        <v>0.16937177658195099</v>
       </c>
       <c r="O36">
-        <v>1.6229118302145702E-2</v>
+        <v>1.6133256557188801E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>82.250488440195696</v>
+        <v>32.958420435587499</v>
       </c>
       <c r="C37">
-        <v>26.543932914733801</v>
+        <v>12.6413482824961</v>
       </c>
       <c r="D37">
-        <v>0.70622339644796694</v>
+        <v>0.69462791721708494</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>0.724790841039189</v>
+        <v>0.71642448260678104</v>
       </c>
       <c r="K37">
-        <v>0.68229854689563996</v>
+        <v>0.67195068251871404</v>
       </c>
       <c r="L37">
-        <v>0.71158080140906999</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="M37">
-        <v>2.8634230589712701</v>
+        <v>1.06623808697648</v>
       </c>
       <c r="N37">
-        <v>0.53421071509289397</v>
+        <v>0.32808037818872299</v>
       </c>
       <c r="O37">
-        <v>1.7756221563786499E-2</v>
+        <v>1.8167028878195102E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>79.308686574300097</v>
+        <v>41.534579992294297</v>
       </c>
       <c r="C38">
-        <v>34.063157717386801</v>
+        <v>12.8846093018849</v>
       </c>
       <c r="D38">
-        <v>0.59129605166593202</v>
+        <v>0.70915896081021501</v>
       </c>
       <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>0.01</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1E-3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <v>6</v>
-      </c>
       <c r="J38">
-        <v>0.585424922941435</v>
+        <v>0.72369000440334597</v>
       </c>
       <c r="K38">
-        <v>0.59643328929986705</v>
+        <v>0.68912373403786797</v>
       </c>
       <c r="L38">
-        <v>0.59202994275649401</v>
+        <v>0.71466314398943198</v>
       </c>
       <c r="M38">
-        <v>0.197201373146594</v>
+        <v>1.47697022485679</v>
       </c>
       <c r="N38">
-        <v>0.126201928780728</v>
+        <v>0.30379696223699199</v>
       </c>
       <c r="O38">
-        <v>4.52400851531559E-3</v>
+        <v>1.4638505982456E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>69.203185319900498</v>
+        <v>72.981989622116004</v>
       </c>
       <c r="C39">
-        <v>29.680335680643701</v>
+        <v>31.3646740118662</v>
       </c>
       <c r="D39">
-        <v>0.69682959048877102</v>
+        <v>0.590635549684426</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>0.71884632320563602</v>
+        <v>0.58718626155878395</v>
       </c>
       <c r="K39">
-        <v>0.67283135182738796</v>
+        <v>0.59423161602818098</v>
       </c>
       <c r="L39">
-        <v>0.69881109643328898</v>
+        <v>0.59048877146631396</v>
       </c>
       <c r="M39">
-        <v>0.95940427487588598</v>
+        <v>0.52671648009232597</v>
       </c>
       <c r="N39">
-        <v>0.280213918411513</v>
+        <v>0.422092066373353</v>
       </c>
       <c r="O39">
-        <v>1.88377134509711E-2</v>
+        <v>2.8781258698264201E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>70.509605010350498</v>
+        <v>64.415209611256898</v>
       </c>
       <c r="C40">
-        <v>30.340118646621701</v>
+        <v>26.788017352421999</v>
       </c>
       <c r="D40">
-        <v>0.69543519741670301</v>
+        <v>0.69756348157933301</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>0.71818582122412999</v>
+        <v>0.71994715984147895</v>
       </c>
       <c r="K40">
-        <v>0.67062967855570199</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L40">
-        <v>0.69749009247027705</v>
+        <v>0.699251431087626</v>
       </c>
       <c r="M40">
-        <v>1.0819416319555599</v>
+        <v>0.64469129135459202</v>
       </c>
       <c r="N40">
-        <v>0.65753451470941304</v>
+        <v>0.16805721952951599</v>
       </c>
       <c r="O40">
-        <v>1.9469011644762901E-2</v>
+        <v>1.90028198749937E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>70.886246919631901</v>
+        <v>65.085086345672593</v>
       </c>
       <c r="C41">
-        <v>27.858318408330199</v>
+        <v>28.357128620147702</v>
       </c>
       <c r="D41">
-        <v>0.70262733010421197</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>0.72082782915015398</v>
+        <v>0.71532364597093701</v>
       </c>
       <c r="K41">
-        <v>0.67635402906208697</v>
+        <v>0.67239101717305105</v>
       </c>
       <c r="L41">
-        <v>0.71070013210039595</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M41">
-        <v>1.6102048659556001</v>
+        <v>1.27427666867115</v>
       </c>
       <c r="N41">
-        <v>0.43047200949786801</v>
+        <v>0.68980458760597196</v>
       </c>
       <c r="O41">
-        <v>1.9032556714229099E-2</v>
+        <v>1.7682054606130499E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>66.801719983418707</v>
+        <v>62.507666031519499</v>
       </c>
       <c r="C42">
-        <v>27.8163499832153</v>
+        <v>25.524518728256201</v>
       </c>
       <c r="D42">
-        <v>0.69602231028915296</v>
+        <v>0.70424189050344899</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>0.71708498458828696</v>
+        <v>0.72038749449581596</v>
       </c>
       <c r="K42">
-        <v>0.67107001321003901</v>
+        <v>0.68075737560546001</v>
       </c>
       <c r="L42">
-        <v>0.69991193306913202</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M42">
-        <v>1.3054806367463501</v>
+        <v>1.01815835077146</v>
       </c>
       <c r="N42">
-        <v>0.28436774797373199</v>
+        <v>0.78181430810335995</v>
       </c>
       <c r="O42">
-        <v>1.8985806483847002E-2</v>
+        <v>1.69908071375168E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>94.123725970586094</v>
+        <v>61.620828866958597</v>
       </c>
       <c r="C43">
-        <v>29.255850791931099</v>
+        <v>26.3535909652709</v>
       </c>
       <c r="D43">
-        <v>0.70387494495816805</v>
+        <v>0.69580214296198395</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0.72060766182298497</v>
+        <v>0.71400264200792596</v>
       </c>
       <c r="K43">
-        <v>0.67899603698811095</v>
+        <v>0.67459269044473802</v>
       </c>
       <c r="L43">
-        <v>0.712021136063408</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M43">
-        <v>3.9845925851661002</v>
+        <v>1.1068378386737801</v>
       </c>
       <c r="N43">
-        <v>0.33033268112988401</v>
+        <v>0.77348373171379903</v>
       </c>
       <c r="O43">
-        <v>1.79378956865422E-2</v>
+        <v>1.6229118302145702E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>85.783437967300401</v>
+        <v>82.250488440195696</v>
       </c>
       <c r="C44">
-        <v>36.836939891179398</v>
+        <v>26.543932914733801</v>
       </c>
       <c r="D44">
-        <v>0.59313077939233805</v>
+        <v>0.70622339644796694</v>
       </c>
       <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>1E-3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44">
-        <v>6</v>
-      </c>
       <c r="J44">
-        <v>0.58784676354028997</v>
+        <v>0.724790841039189</v>
       </c>
       <c r="K44">
-        <v>0.59885512989872303</v>
+        <v>0.68229854689563996</v>
       </c>
       <c r="L44">
-        <v>0.59269044473800003</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M44">
-        <v>0.18067313372258001</v>
+        <v>2.8634230589712701</v>
       </c>
       <c r="N44">
-        <v>0.23774502786360199</v>
+        <v>0.53421071509289397</v>
       </c>
       <c r="O44">
-        <v>4.5049197866498603E-3</v>
+        <v>1.7756221563786499E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>75.189435243606496</v>
+        <v>79.308686574300097</v>
       </c>
       <c r="C45">
-        <v>32.157245715459098</v>
+        <v>34.063157717386801</v>
       </c>
       <c r="D45">
-        <v>0.69653603405254605</v>
+        <v>0.59129605166593202</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45">
-        <v>0.71642448260678104</v>
+        <v>0.585424922941435</v>
       </c>
       <c r="K45">
-        <v>0.67437252311756901</v>
+        <v>0.59643328929986705</v>
       </c>
       <c r="L45">
-        <v>0.69881109643328898</v>
+        <v>0.59202994275649401</v>
       </c>
       <c r="M45">
-        <v>1.2985669111260201</v>
+        <v>0.197201373146594</v>
       </c>
       <c r="N45">
-        <v>0.50960051267811302</v>
+        <v>0.126201928780728</v>
       </c>
       <c r="O45">
-        <v>1.7242848872267399E-2</v>
+        <v>4.52400851531559E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>76.578737576802496</v>
+        <v>69.203185319900498</v>
       </c>
       <c r="C46">
-        <v>32.015949090321797</v>
+        <v>29.680335680643701</v>
       </c>
       <c r="D46">
-        <v>0.69565536474387202</v>
+        <v>0.69682959048877102</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.715103478643769</v>
+        <v>0.71884632320563602</v>
       </c>
       <c r="K46">
-        <v>0.67349185380889398</v>
+        <v>0.67283135182738796</v>
       </c>
       <c r="L46">
-        <v>0.69837076177895197</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M46">
-        <v>1.40806054857555</v>
+        <v>0.95940427487588598</v>
       </c>
       <c r="N46">
-        <v>0.610538737932108</v>
+        <v>0.280213918411513</v>
       </c>
       <c r="O46">
-        <v>1.70960398171267E-2</v>
+        <v>1.88377134509711E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>80.666984637578295</v>
+        <v>70.509605010350498</v>
       </c>
       <c r="C47">
-        <v>30.5815454324086</v>
+        <v>30.340118646621701</v>
       </c>
       <c r="D47">
-        <v>0.70270071921326804</v>
+        <v>0.69543519741670301</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>0.72126816380449099</v>
+        <v>0.71818582122412999</v>
       </c>
       <c r="K47">
-        <v>0.67789520035226702</v>
+        <v>0.67062967855570199</v>
       </c>
       <c r="L47">
-        <v>0.708938793483047</v>
+        <v>0.69749009247027705</v>
       </c>
       <c r="M47">
-        <v>2.6150282040022801</v>
+        <v>1.0819416319555599</v>
       </c>
       <c r="N47">
-        <v>0.64061370427439501</v>
+        <v>0.65753451470941304</v>
       </c>
       <c r="O47">
-        <v>1.8248080585885101E-2</v>
+        <v>1.9469011644762901E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>72.014646689097006</v>
+        <v>70.886246919631901</v>
       </c>
       <c r="C48">
-        <v>30.524349848429299</v>
+        <v>27.858318408330199</v>
       </c>
       <c r="D48">
-        <v>0.697123146924996</v>
+        <v>0.70262733010421197</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0.71752531924262397</v>
+        <v>0.72082782915015398</v>
       </c>
       <c r="K48">
-        <v>0.67305151915455697</v>
+        <v>0.67635402906208697</v>
       </c>
       <c r="L48">
-        <v>0.70079260237780705</v>
+        <v>0.71070013210039595</v>
       </c>
       <c r="M48">
-        <v>1.64314296366404</v>
+        <v>1.6102048659556001</v>
       </c>
       <c r="N48">
-        <v>0.67655342158207299</v>
+        <v>0.43047200949786801</v>
       </c>
       <c r="O48">
-        <v>1.8340817885406299E-2</v>
+        <v>1.9032556714229099E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>107.629884004592</v>
+        <v>66.801719983418707</v>
       </c>
       <c r="C49">
-        <v>32.142752011616999</v>
+        <v>27.8163499832153</v>
       </c>
       <c r="D49">
-        <v>0.70306766475854898</v>
+        <v>0.69602231028915296</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="F49">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>0.71774548656979298</v>
+        <v>0.71708498458828696</v>
       </c>
       <c r="K49">
-        <v>0.68053720827829101</v>
+        <v>0.67107001321003901</v>
       </c>
       <c r="L49">
-        <v>0.71092029942756496</v>
+        <v>0.69991193306913202</v>
       </c>
       <c r="M49">
-        <v>3.6954683266292698</v>
+        <v>1.3054806367463501</v>
       </c>
       <c r="N49">
-        <v>0.115966543062252</v>
+        <v>0.28436774797373199</v>
       </c>
       <c r="O49">
-        <v>1.6173268001823699E-2</v>
+        <v>1.8985806483847002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>50.289266665776502</v>
+        <v>94.123725970586094</v>
       </c>
       <c r="C50">
-        <v>22.329266071319498</v>
+        <v>29.255850791931099</v>
       </c>
       <c r="D50">
-        <v>0.59423161602818098</v>
+        <v>0.70387494495816805</v>
       </c>
       <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0.01</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1E-3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50">
-        <v>6</v>
-      </c>
       <c r="J50">
-        <v>0.58982826948480804</v>
+        <v>0.72060766182298497</v>
       </c>
       <c r="K50">
-        <v>0.59863496257155402</v>
+        <v>0.67899603698811095</v>
       </c>
       <c r="L50">
-        <v>0.59423161602818098</v>
+        <v>0.712021136063408</v>
       </c>
       <c r="M50">
-        <v>0.120597388159733</v>
+        <v>3.9845925851661002</v>
       </c>
       <c r="N50">
-        <v>2.68156046451021E-2</v>
+        <v>0.33033268112988401</v>
       </c>
       <c r="O50">
-        <v>3.59531739730392E-3</v>
+        <v>1.79378956865422E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>44.517363150914498</v>
+        <v>85.783437967300401</v>
       </c>
       <c r="C51">
-        <v>19.459531068801802</v>
+        <v>36.836939891179398</v>
       </c>
       <c r="D51">
-        <v>0.69763687068838898</v>
+        <v>0.59313077939233805</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>0.71532364597093701</v>
+        <v>0.58784676354028997</v>
       </c>
       <c r="K51">
-        <v>0.67635402906208697</v>
+        <v>0.59885512989872303</v>
       </c>
       <c r="L51">
-        <v>0.70123293703214395</v>
+        <v>0.59269044473800003</v>
       </c>
       <c r="M51">
-        <v>0.60382680830323199</v>
+        <v>0.18067313372258001</v>
       </c>
       <c r="N51">
-        <v>0.20911512721389799</v>
+        <v>0.23774502786360199</v>
       </c>
       <c r="O51">
-        <v>1.6111207907688701E-2</v>
+        <v>4.5049197866498603E-3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>44.624171495437601</v>
+        <v>75.189435243606496</v>
       </c>
       <c r="C52">
-        <v>19.538538614908799</v>
+        <v>32.157245715459098</v>
       </c>
       <c r="D52">
-        <v>0.69382063701746599</v>
+        <v>0.69653603405254605</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>0.71334214002642005</v>
+        <v>0.71642448260678104</v>
       </c>
       <c r="K52">
-        <v>0.67040951122853298</v>
+        <v>0.67437252311756901</v>
       </c>
       <c r="L52">
-        <v>0.69771025979744605</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M52">
-        <v>0.63162989646847501</v>
+        <v>1.2985669111260201</v>
       </c>
       <c r="N52">
-        <v>0.26599084203892798</v>
+        <v>0.50960051267811302</v>
       </c>
       <c r="O52">
-        <v>1.7741655839711899E-2</v>
+        <v>1.7242848872267399E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>48.892688274383502</v>
+        <v>76.578737576802496</v>
       </c>
       <c r="C53">
-        <v>18.638858636220199</v>
+        <v>32.015949090321797</v>
       </c>
       <c r="D53">
-        <v>0.702553940995156</v>
+        <v>0.69565536474387202</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="F53">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>0.71598414795244303</v>
+        <v>0.715103478643769</v>
       </c>
       <c r="K53">
-        <v>0.68295904887714598</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L53">
-        <v>0.708718626155878</v>
+        <v>0.69837076177895197</v>
       </c>
       <c r="M53">
-        <v>1.5782904165282099</v>
+        <v>1.40806054857555</v>
       </c>
       <c r="N53">
-        <v>0.323575529052327</v>
+        <v>0.610538737932108</v>
       </c>
       <c r="O53">
-        <v>1.4169610664644601E-2</v>
+        <v>1.70960398171267E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>41.984801451365101</v>
+        <v>80.666984637578295</v>
       </c>
       <c r="C54">
-        <v>18.163538217544499</v>
+        <v>30.5815454324086</v>
       </c>
       <c r="D54">
-        <v>0.696169088507265</v>
+        <v>0.70270071921326804</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>0.71356230735358805</v>
+        <v>0.72126816380449099</v>
       </c>
       <c r="K54">
-        <v>0.67481285777190603</v>
+        <v>0.67789520035226702</v>
       </c>
       <c r="L54">
-        <v>0.70013210039630103</v>
+        <v>0.708938793483047</v>
       </c>
       <c r="M54">
-        <v>0.79702353560519801</v>
+        <v>2.6150282040022801</v>
       </c>
       <c r="N54">
-        <v>0.34286390695853097</v>
+        <v>0.64061370427439501</v>
       </c>
       <c r="O54">
-        <v>1.6065678907644598E-2</v>
+        <v>1.8248080585885101E-2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>66.197283585866202</v>
+        <v>72.014646689097006</v>
       </c>
       <c r="C55">
-        <v>20.146304210027001</v>
+        <v>30.524349848429299</v>
       </c>
       <c r="D55">
-        <v>0.70321444297666202</v>
+        <v>0.697123146924996</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>0.71378247468075695</v>
+        <v>0.71752531924262397</v>
       </c>
       <c r="K55">
-        <v>0.68229854689563996</v>
+        <v>0.67305151915455697</v>
       </c>
       <c r="L55">
-        <v>0.71356230735358805</v>
+        <v>0.70079260237780705</v>
       </c>
       <c r="M55">
-        <v>2.7571983803045299</v>
+        <v>1.64314296366404</v>
       </c>
       <c r="N55">
-        <v>0.26046881192697602</v>
+        <v>0.67655342158207299</v>
       </c>
       <c r="O55">
-        <v>1.47900450769441E-2</v>
+        <v>1.8340817885406299E-2</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>53.111356814702297</v>
+        <v>107.629884004592</v>
       </c>
       <c r="C56">
-        <v>23.933893918991</v>
+        <v>32.142752011616999</v>
       </c>
       <c r="D56">
-        <v>0.59540584177307998</v>
+        <v>0.70306766475854898</v>
       </c>
       <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>0.01</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>1E-3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56">
-        <v>6</v>
-      </c>
       <c r="J56">
-        <v>0.58982826948480804</v>
+        <v>0.71774548656979298</v>
       </c>
       <c r="K56">
-        <v>0.59995596653456595</v>
+        <v>0.68053720827829101</v>
       </c>
       <c r="L56">
-        <v>0.59643328929986705</v>
+        <v>0.71092029942756496</v>
       </c>
       <c r="M56">
-        <v>4.6611061743333397E-2</v>
+        <v>3.6954683266292698</v>
       </c>
       <c r="N56">
-        <v>1.2555282762949101E-2</v>
+        <v>0.115966543062252</v>
       </c>
       <c r="O56">
-        <v>4.1979596788712902E-3</v>
+        <v>1.6173268001823699E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>47.098129113515199</v>
+        <v>50.289266665776502</v>
       </c>
       <c r="C57">
-        <v>20.8708790938059</v>
+        <v>22.329266071319498</v>
       </c>
       <c r="D57">
-        <v>0.69778364890650202</v>
+        <v>0.59423161602818098</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J57">
-        <v>0.71246147071774502</v>
+        <v>0.58982826948480804</v>
       </c>
       <c r="K57">
-        <v>0.67745486569793001</v>
+        <v>0.59863496257155402</v>
       </c>
       <c r="L57">
-        <v>0.70343461030383003</v>
+        <v>0.59423161602818098</v>
       </c>
       <c r="M57">
-        <v>0.57836636776746497</v>
+        <v>0.120597388159733</v>
       </c>
       <c r="N57">
-        <v>0.28598603048085303</v>
+        <v>2.68156046451021E-2</v>
       </c>
       <c r="O57">
-        <v>1.48394883624494E-2</v>
+        <v>3.59531739730392E-3</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>47.204359213511097</v>
+        <v>44.517363150914498</v>
       </c>
       <c r="C58">
-        <v>20.955801963806099</v>
+        <v>19.459531068801802</v>
       </c>
       <c r="D58">
-        <v>0.69653603405254605</v>
+        <v>0.69763687068838898</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>0.71136063408190198</v>
+        <v>0.71532364597093701</v>
       </c>
       <c r="K58">
-        <v>0.67525319242624304</v>
+        <v>0.67635402906208697</v>
       </c>
       <c r="L58">
-        <v>0.70299427564949302</v>
+        <v>0.70123293703214395</v>
       </c>
       <c r="M58">
-        <v>0.68646881905043</v>
+        <v>0.60382680830323199</v>
       </c>
       <c r="N58">
-        <v>0.31681007952404899</v>
+        <v>0.20911512721389799</v>
       </c>
       <c r="O58">
-        <v>1.54319689632181E-2</v>
+        <v>1.6111207907688701E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>53.949284315109203</v>
+        <v>44.624171495437601</v>
       </c>
       <c r="C59">
-        <v>20.269028504689501</v>
+        <v>19.538538614908799</v>
       </c>
       <c r="D59">
-        <v>0.701599882577425</v>
+        <v>0.69382063701746599</v>
       </c>
       <c r="E59">
         <v>5</v>
       </c>
       <c r="F59">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J59">
         <v>0.71334214002642005</v>
       </c>
       <c r="K59">
-        <v>0.68229854689563996</v>
+        <v>0.67040951122853298</v>
       </c>
       <c r="L59">
-        <v>0.70915896081021501</v>
+        <v>0.69771025979744605</v>
       </c>
       <c r="M59">
-        <v>1.6475723808996601</v>
+        <v>0.63162989646847501</v>
       </c>
       <c r="N59">
-        <v>0.28279824725887998</v>
+        <v>0.26599084203892798</v>
       </c>
       <c r="O59">
-        <v>1.37545366192255E-2</v>
+        <v>1.7741655839711899E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>44.570408026377301</v>
+        <v>48.892688274383502</v>
       </c>
       <c r="C60">
-        <v>19.44646859169</v>
+        <v>18.638858636220199</v>
       </c>
       <c r="D60">
-        <v>0.69660942316160201</v>
+        <v>0.702553940995156</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>0.71158080140906999</v>
+        <v>0.71598414795244303</v>
       </c>
       <c r="K60">
-        <v>0.67503302509907503</v>
+        <v>0.68295904887714598</v>
       </c>
       <c r="L60">
-        <v>0.70321444297666202</v>
+        <v>0.708718626155878</v>
       </c>
       <c r="M60">
-        <v>0.74650584537904796</v>
+        <v>1.5782904165282099</v>
       </c>
       <c r="N60">
-        <v>0.37028543971283401</v>
+        <v>0.323575529052327</v>
       </c>
       <c r="O60">
-        <v>1.5634464138975401E-2</v>
+        <v>1.4169610664644601E-2</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>94.568666378656999</v>
+        <v>41.984801451365101</v>
       </c>
       <c r="C61">
-        <v>22.136420090993202</v>
+        <v>18.163538217544499</v>
       </c>
       <c r="D61">
-        <v>0.70292088654043705</v>
+        <v>0.696169088507265</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
         <v>24</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>0.71290180537208203</v>
+        <v>0.71356230735358805</v>
       </c>
       <c r="K61">
-        <v>0.68009687362395399</v>
+        <v>0.67481285777190603</v>
       </c>
       <c r="L61">
-        <v>0.71576398062527502</v>
+        <v>0.70013210039630103</v>
       </c>
       <c r="M61">
-        <v>2.8149678453500901</v>
+        <v>0.79702353560519801</v>
       </c>
       <c r="N61">
-        <v>0.29165907653342499</v>
+        <v>0.34286390695853097</v>
       </c>
       <c r="O61">
-        <v>1.6181258418385101E-2</v>
+        <v>1.6065678907644598E-2</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>56.485668977101597</v>
+        <v>66.197283585866202</v>
       </c>
       <c r="C62">
-        <v>25.5462249914805</v>
+        <v>20.146304210027001</v>
       </c>
       <c r="D62">
-        <v>0.59555261999119302</v>
+        <v>0.70321444297666202</v>
       </c>
       <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>0.01</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>1E-3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
       <c r="J62">
-        <v>0.59202994275649401</v>
+        <v>0.71378247468075695</v>
       </c>
       <c r="K62">
-        <v>0.598194627917217</v>
+        <v>0.68229854689563996</v>
       </c>
       <c r="L62">
-        <v>0.59643328929986705</v>
+        <v>0.71356230735358805</v>
       </c>
       <c r="M62">
-        <v>8.0046339948291495E-2</v>
+        <v>2.7571983803045299</v>
       </c>
       <c r="N62">
-        <v>3.8257174370708802E-2</v>
+        <v>0.26046881192697602</v>
       </c>
       <c r="O62">
-        <v>2.5926202455094499E-3</v>
+        <v>1.47900450769441E-2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>50.442092418670597</v>
+        <v>53.111356814702297</v>
       </c>
       <c r="C63">
-        <v>22.392906188964801</v>
+        <v>23.933893918991</v>
       </c>
       <c r="D63">
-        <v>0.69815059445178296</v>
+        <v>0.59540584177307998</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
         <v>21</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J63">
-        <v>0.71378247468075695</v>
+        <v>0.58982826948480804</v>
       </c>
       <c r="K63">
-        <v>0.67701453104359299</v>
+        <v>0.59995596653456595</v>
       </c>
       <c r="L63">
-        <v>0.70365477763099904</v>
+        <v>0.59643328929986705</v>
       </c>
       <c r="M63">
-        <v>0.58017158654211198</v>
+        <v>4.6611061743333397E-2</v>
       </c>
       <c r="N63">
-        <v>0.28234515537962501</v>
+        <v>1.2555282762949101E-2</v>
       </c>
       <c r="O63">
-        <v>1.55068252538293E-2</v>
+        <v>4.1979596788712902E-3</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>50.352616389592399</v>
+        <v>47.098129113515199</v>
       </c>
       <c r="C64">
-        <v>22.348772128423001</v>
+        <v>20.8708790938059</v>
       </c>
       <c r="D64">
-        <v>0.69550858652575898</v>
+        <v>0.69778364890650202</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>0.71114046675473297</v>
+        <v>0.71246147071774502</v>
       </c>
       <c r="K64">
-        <v>0.67283135182738796</v>
+        <v>0.67745486569793001</v>
       </c>
       <c r="L64">
-        <v>0.702553940995156</v>
+        <v>0.70343461030383003</v>
       </c>
       <c r="M64">
-        <v>0.75561689096226903</v>
+        <v>0.57836636776746497</v>
       </c>
       <c r="N64">
-        <v>0.33203704687125202</v>
+        <v>0.28598603048085303</v>
       </c>
       <c r="O64">
-        <v>1.6413913535548899E-2</v>
+        <v>1.48394883624494E-2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>60.1429108778635</v>
+        <v>47.204359213511097</v>
       </c>
       <c r="C65">
-        <v>22.070303599039701</v>
+        <v>20.955801963806099</v>
       </c>
       <c r="D65">
-        <v>0.699471598414795</v>
+        <v>0.69653603405254605</v>
       </c>
       <c r="E65">
         <v>5</v>
       </c>
       <c r="F65">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>0.71246147071774502</v>
+        <v>0.71136063408190198</v>
       </c>
       <c r="K65">
-        <v>0.67767503302509902</v>
+        <v>0.67525319242624304</v>
       </c>
       <c r="L65">
-        <v>0.70827829150154098</v>
+        <v>0.70299427564949302</v>
       </c>
       <c r="M65">
-        <v>2.3367847279117901</v>
+        <v>0.68646881905043</v>
       </c>
       <c r="N65">
-        <v>0.37997430599276599</v>
+        <v>0.31681007952404899</v>
       </c>
       <c r="O65">
-        <v>1.5506825253829201E-2</v>
+        <v>1.54319689632181E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>47.665170828501303</v>
+        <v>53.949284315109203</v>
       </c>
       <c r="C66">
-        <v>20.755410989125501</v>
+        <v>20.269028504689501</v>
       </c>
       <c r="D66">
-        <v>0.69528841919859097</v>
+        <v>0.701599882577425</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>0.70937912813738402</v>
+        <v>0.71334214002642005</v>
       </c>
       <c r="K66">
-        <v>0.6741523557904</v>
+        <v>0.68229854689563996</v>
       </c>
       <c r="L66">
-        <v>0.70233377366798699</v>
+        <v>0.70915896081021501</v>
       </c>
       <c r="M66">
-        <v>0.87706892831953798</v>
+        <v>1.6475723808996601</v>
       </c>
       <c r="N66">
-        <v>0.31538857376162899</v>
+        <v>0.28279824725887998</v>
       </c>
       <c r="O66">
-        <v>1.52197051481764E-2</v>
+        <v>1.37545366192255E-2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67">
-        <v>112.32906794548001</v>
+        <v>44.570408026377301</v>
       </c>
       <c r="C67">
-        <v>24.128863970438601</v>
+        <v>19.44646859169</v>
       </c>
       <c r="D67">
-        <v>0.69998532217818799</v>
+        <v>0.69660942316160201</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>24</v>
       </c>
       <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="K67">
+        <v>0.67503302509907503</v>
+      </c>
+      <c r="L67">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="M67">
+        <v>0.74650584537904796</v>
+      </c>
+      <c r="N67">
+        <v>0.37028543971283401</v>
+      </c>
+      <c r="O67">
+        <v>1.5634464138975401E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>29</v>
+      </c>
+      <c r="B68">
+        <v>94.568666378656999</v>
+      </c>
+      <c r="C68">
+        <v>22.136420090993202</v>
+      </c>
+      <c r="D68">
+        <v>0.70292088654043705</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>0.01</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="J67">
+      <c r="J68">
+        <v>0.71290180537208203</v>
+      </c>
+      <c r="K68">
+        <v>0.68009687362395399</v>
+      </c>
+      <c r="L68">
+        <v>0.71576398062527502</v>
+      </c>
+      <c r="M68">
+        <v>2.8149678453500901</v>
+      </c>
+      <c r="N68">
+        <v>0.29165907653342499</v>
+      </c>
+      <c r="O68">
+        <v>1.6181258418385101E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>56.485668977101597</v>
+      </c>
+      <c r="C69">
+        <v>25.5462249914805</v>
+      </c>
+      <c r="D69">
+        <v>0.59555261999119302</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1E-3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <v>0.59202994275649401</v>
+      </c>
+      <c r="K69">
+        <v>0.598194627917217</v>
+      </c>
+      <c r="L69">
+        <v>0.59643328929986705</v>
+      </c>
+      <c r="M69">
+        <v>8.0046339948291495E-2</v>
+      </c>
+      <c r="N69">
+        <v>3.8257174370708802E-2</v>
+      </c>
+      <c r="O69">
+        <v>2.5926202455094499E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>50.442092418670597</v>
+      </c>
+      <c r="C70">
+        <v>22.392906188964801</v>
+      </c>
+      <c r="D70">
+        <v>0.69815059445178296</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0.01</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0.71378247468075695</v>
+      </c>
+      <c r="K70">
+        <v>0.67701453104359299</v>
+      </c>
+      <c r="L70">
+        <v>0.70365477763099904</v>
+      </c>
+      <c r="M70">
+        <v>0.58017158654211198</v>
+      </c>
+      <c r="N70">
+        <v>0.28234515537962501</v>
+      </c>
+      <c r="O70">
+        <v>1.55068252538293E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>50.352616389592399</v>
+      </c>
+      <c r="C71">
+        <v>22.348772128423001</v>
+      </c>
+      <c r="D71">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>1E-3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>0.71114046675473297</v>
+      </c>
+      <c r="K71">
+        <v>0.67283135182738796</v>
+      </c>
+      <c r="L71">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="M71">
+        <v>0.75561689096226903</v>
+      </c>
+      <c r="N71">
+        <v>0.33203704687125202</v>
+      </c>
+      <c r="O71">
+        <v>1.6413913535548899E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>60.1429108778635</v>
+      </c>
+      <c r="C72">
+        <v>22.070303599039701</v>
+      </c>
+      <c r="D72">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0.71246147071774502</v>
+      </c>
+      <c r="K72">
+        <v>0.67767503302509902</v>
+      </c>
+      <c r="L72">
+        <v>0.70827829150154098</v>
+      </c>
+      <c r="M72">
+        <v>2.3367847279117901</v>
+      </c>
+      <c r="N72">
+        <v>0.37997430599276599</v>
+      </c>
+      <c r="O72">
+        <v>1.5506825253829201E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>31</v>
+      </c>
+      <c r="B73">
+        <v>47.665170828501303</v>
+      </c>
+      <c r="C73">
+        <v>20.755410989125501</v>
+      </c>
+      <c r="D73">
+        <v>0.69528841919859097</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>1E-3</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>0.70937912813738402</v>
+      </c>
+      <c r="K73">
+        <v>0.6741523557904</v>
+      </c>
+      <c r="L73">
+        <v>0.70233377366798699</v>
+      </c>
+      <c r="M73">
+        <v>0.87706892831953798</v>
+      </c>
+      <c r="N73">
+        <v>0.31538857376162899</v>
+      </c>
+      <c r="O73">
+        <v>1.52197051481764E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>31</v>
+      </c>
+      <c r="B74">
+        <v>112.32906794548001</v>
+      </c>
+      <c r="C74">
+        <v>24.128863970438601</v>
+      </c>
+      <c r="D74">
+        <v>0.69998532217818799</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>0.01</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
         <v>0.71025979744605905</v>
       </c>
-      <c r="K67">
+      <c r="K74">
         <v>0.677234698370761</v>
       </c>
-      <c r="L67">
+      <c r="L74">
         <v>0.71246147071774502</v>
       </c>
-      <c r="M67">
+      <c r="M74">
         <v>5.7358908761731602</v>
       </c>
-      <c r="N67">
+      <c r="N74">
         <v>0.37498814032383398</v>
       </c>
-      <c r="O67">
+      <c r="O74">
         <v>1.6112210773594701E-2</v>
       </c>
     </row>
@@ -4590,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -5162,6 +7145,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22.482077280680301</v>
+      </c>
+      <c r="C2">
+        <v>9.1489218870798705</v>
+      </c>
+      <c r="D2">
+        <v>0.57911345956260096</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.56935270805812399</v>
+      </c>
+      <c r="K2">
+        <v>0.58784676354028997</v>
+      </c>
+      <c r="L2">
+        <v>0.58014090708938704</v>
+      </c>
+      <c r="M2">
+        <v>0.30831974569950898</v>
+      </c>
+      <c r="N2">
+        <v>3.8174180957332597E-2</v>
+      </c>
+      <c r="O2">
+        <v>7.5850404683423999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19.1311819553375</v>
+      </c>
+      <c r="C3">
+        <v>7.7627926667531302</v>
+      </c>
+      <c r="D3">
+        <v>0.68648172611184499</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="K3">
+        <v>0.66226332012329303</v>
+      </c>
+      <c r="L3">
+        <v>0.69286657859973499</v>
+      </c>
+      <c r="M3">
+        <v>0.30759972076841402</v>
+      </c>
+      <c r="N3">
+        <v>0.12005872909269399</v>
+      </c>
+      <c r="O3">
+        <v>1.77513676504031E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20.0250260829925</v>
+      </c>
+      <c r="C4">
+        <v>8.1796975930531808</v>
+      </c>
+      <c r="D4">
+        <v>0.68450022016732703</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>0.70299427564949302</v>
+      </c>
+      <c r="K4">
+        <v>0.66116248348744999</v>
+      </c>
+      <c r="L4">
+        <v>0.68934390136503698</v>
+      </c>
+      <c r="M4">
+        <v>0.26746963664274698</v>
+      </c>
+      <c r="N4">
+        <v>0.14312113080876099</v>
+      </c>
+      <c r="O4">
+        <v>1.74178193149215E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18.374215920766101</v>
+      </c>
+      <c r="C5">
+        <v>7.3404917716979901</v>
+      </c>
+      <c r="D5">
+        <v>0.68699544987523797</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.70717745486569705</v>
+      </c>
+      <c r="K5">
+        <v>0.66292382210479905</v>
+      </c>
+      <c r="L5">
+        <v>0.69088507265521704</v>
+      </c>
+      <c r="M5">
+        <v>0.199029629380016</v>
+      </c>
+      <c r="N5">
+        <v>0.15360987080013</v>
+      </c>
+      <c r="O5">
+        <v>1.8274624978587301E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19.026470899581899</v>
+      </c>
+      <c r="C6">
+        <v>7.6381085713704397</v>
+      </c>
+      <c r="D6">
+        <v>0.68494055482166405</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.70277410832232501</v>
+      </c>
+      <c r="K6">
+        <v>0.66182298546895602</v>
+      </c>
+      <c r="L6">
+        <v>0.69022457067371201</v>
+      </c>
+      <c r="M6">
+        <v>0.27348138360021301</v>
+      </c>
+      <c r="N6">
+        <v>0.12695867579317999</v>
+      </c>
+      <c r="O6">
+        <v>1.7130659325342901E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>18.667048136393198</v>
+      </c>
+      <c r="C7">
+        <v>7.2577070395151697</v>
+      </c>
+      <c r="D7">
+        <v>0.69771025979744605</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.71312197269925104</v>
+      </c>
+      <c r="K7">
+        <v>0.67701453104359299</v>
+      </c>
+      <c r="L7">
+        <v>0.70299427564949302</v>
+      </c>
+      <c r="M7">
+        <v>0.32489386198683501</v>
+      </c>
+      <c r="N7">
+        <v>0.14135348941345</v>
+      </c>
+      <c r="O7">
+        <v>1.5206960103249E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25.802310705184901</v>
+      </c>
+      <c r="C2">
+        <v>10.808968623479201</v>
+      </c>
+      <c r="D2">
+        <v>0.58322324966974903</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.57419638925583405</v>
+      </c>
+      <c r="K2">
+        <v>0.59048877146631396</v>
+      </c>
+      <c r="L2">
+        <v>0.58498458828709798</v>
+      </c>
+      <c r="M2">
+        <v>7.0616149313636398E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.6233248110452202E-2</v>
+      </c>
+      <c r="O2">
+        <v>6.7669375060813398E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>22.256393988927201</v>
+      </c>
+      <c r="C3">
+        <v>9.2584842840830408</v>
+      </c>
+      <c r="D3">
+        <v>0.687655951856744</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.70783795684720296</v>
+      </c>
+      <c r="K3">
+        <v>0.66424482606781099</v>
+      </c>
+      <c r="L3">
+        <v>0.69088507265521704</v>
+      </c>
+      <c r="M3">
+        <v>0.45792790608329798</v>
+      </c>
+      <c r="N3">
+        <v>0.203023812009025</v>
+      </c>
+      <c r="O3">
+        <v>1.79426991398665E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23.1117781798044</v>
+      </c>
+      <c r="C4">
+        <v>9.6155950228373204</v>
+      </c>
+      <c r="D4">
+        <v>0.68772934096579996</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.70717745486569705</v>
+      </c>
+      <c r="K4">
+        <v>0.66468516072214801</v>
+      </c>
+      <c r="L4">
+        <v>0.69132540730955505</v>
+      </c>
+      <c r="M4">
+        <v>0.29880339798515698</v>
+      </c>
+      <c r="N4">
+        <v>0.13556388776977599</v>
+      </c>
+      <c r="O4">
+        <v>1.7532779495504702E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20.9596690336863</v>
+      </c>
+      <c r="C5">
+        <v>8.5508293310801093</v>
+      </c>
+      <c r="D5">
+        <v>0.69389402612652196</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.71158080140906999</v>
+      </c>
+      <c r="K5">
+        <v>0.67459269044473802</v>
+      </c>
+      <c r="L5">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="M5">
+        <v>0.33728865664275998</v>
+      </c>
+      <c r="N5">
+        <v>0.16189204455213499</v>
+      </c>
+      <c r="O5">
+        <v>1.51434296454389E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>21.6681433518727</v>
+      </c>
+      <c r="C6">
+        <v>8.9272715250651</v>
+      </c>
+      <c r="D6">
+        <v>0.68692206076618201</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.70739762219286595</v>
+      </c>
+      <c r="K6">
+        <v>0.66270365477763105</v>
+      </c>
+      <c r="L6">
+        <v>0.69066490532804903</v>
+      </c>
+      <c r="M6">
+        <v>0.36305308198456099</v>
+      </c>
+      <c r="N6">
+        <v>0.10932772527600899</v>
+      </c>
+      <c r="O6">
+        <v>1.84371788313588E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>22.0035888353983</v>
+      </c>
+      <c r="C7">
+        <v>8.6364574432372994</v>
+      </c>
+      <c r="D7">
+        <v>0.70108615881403202</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.71774548656979298</v>
+      </c>
+      <c r="K7">
+        <v>0.68053720827829101</v>
+      </c>
+      <c r="L7">
+        <v>0.70497578159401098</v>
+      </c>
+      <c r="M7">
+        <v>0.34607716356431301</v>
+      </c>
+      <c r="N7">
+        <v>0.160096312273276</v>
+      </c>
+      <c r="O7">
+        <v>1.5437203273960301E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
@@ -5519,7 +8208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -5865,712 +8554,6 @@
       </c>
       <c r="O7">
         <v>1.70009478767887E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>72.981989622116004</v>
-      </c>
-      <c r="C2">
-        <v>31.3646740118662</v>
-      </c>
-      <c r="D2">
-        <v>0.590635549684426</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0.58718626155878395</v>
-      </c>
-      <c r="K2">
-        <v>0.59423161602818098</v>
-      </c>
-      <c r="L2">
-        <v>0.59048877146631396</v>
-      </c>
-      <c r="M2">
-        <v>0.52671648009232597</v>
-      </c>
-      <c r="N2">
-        <v>0.422092066373353</v>
-      </c>
-      <c r="O2">
-        <v>2.8781258698264201E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>64.415209611256898</v>
-      </c>
-      <c r="C3">
-        <v>26.788017352421999</v>
-      </c>
-      <c r="D3">
-        <v>0.69756348157933301</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.71994715984147895</v>
-      </c>
-      <c r="K3">
-        <v>0.67349185380889398</v>
-      </c>
-      <c r="L3">
-        <v>0.699251431087626</v>
-      </c>
-      <c r="M3">
-        <v>0.64469129135459202</v>
-      </c>
-      <c r="N3">
-        <v>0.16805721952951599</v>
-      </c>
-      <c r="O3">
-        <v>1.90028198749937E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>65.085086345672593</v>
-      </c>
-      <c r="C4">
-        <v>28.357128620147702</v>
-      </c>
-      <c r="D4">
-        <v>0.69550858652575898</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0.71532364597093701</v>
-      </c>
-      <c r="K4">
-        <v>0.67239101717305105</v>
-      </c>
-      <c r="L4">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M4">
-        <v>1.27427666867115</v>
-      </c>
-      <c r="N4">
-        <v>0.68980458760597196</v>
-      </c>
-      <c r="O4">
-        <v>1.7682054606130499E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>62.507666031519499</v>
-      </c>
-      <c r="C5">
-        <v>25.524518728256201</v>
-      </c>
-      <c r="D5">
-        <v>0.70424189050344899</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.72038749449581596</v>
-      </c>
-      <c r="K5">
-        <v>0.68075737560546001</v>
-      </c>
-      <c r="L5">
-        <v>0.71158080140906999</v>
-      </c>
-      <c r="M5">
-        <v>1.01815835077146</v>
-      </c>
-      <c r="N5">
-        <v>0.78181430810335995</v>
-      </c>
-      <c r="O5">
-        <v>1.69908071375168E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>61.620828866958597</v>
-      </c>
-      <c r="C6">
-        <v>26.3535909652709</v>
-      </c>
-      <c r="D6">
-        <v>0.69580214296198395</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0.71400264200792596</v>
-      </c>
-      <c r="K6">
-        <v>0.67459269044473802</v>
-      </c>
-      <c r="L6">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M6">
-        <v>1.1068378386737801</v>
-      </c>
-      <c r="N6">
-        <v>0.77348373171379903</v>
-      </c>
-      <c r="O6">
-        <v>1.6229118302145702E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>82.250488440195696</v>
-      </c>
-      <c r="C7">
-        <v>26.543932914733801</v>
-      </c>
-      <c r="D7">
-        <v>0.70622339644796694</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.724790841039189</v>
-      </c>
-      <c r="K7">
-        <v>0.68229854689563996</v>
-      </c>
-      <c r="L7">
-        <v>0.71158080140906999</v>
-      </c>
-      <c r="M7">
-        <v>2.8634230589712701</v>
-      </c>
-      <c r="N7">
-        <v>0.53421071509289397</v>
-      </c>
-      <c r="O7">
-        <v>1.7756221563786499E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>79.308686574300097</v>
-      </c>
-      <c r="C2">
-        <v>34.063157717386801</v>
-      </c>
-      <c r="D2">
-        <v>0.59129605166593202</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0.585424922941435</v>
-      </c>
-      <c r="K2">
-        <v>0.59643328929986705</v>
-      </c>
-      <c r="L2">
-        <v>0.59202994275649401</v>
-      </c>
-      <c r="M2">
-        <v>0.197201373146594</v>
-      </c>
-      <c r="N2">
-        <v>0.126201928780728</v>
-      </c>
-      <c r="O2">
-        <v>4.52400851531559E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>69.203185319900498</v>
-      </c>
-      <c r="C3">
-        <v>29.680335680643701</v>
-      </c>
-      <c r="D3">
-        <v>0.69682959048877102</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.71884632320563602</v>
-      </c>
-      <c r="K3">
-        <v>0.67283135182738796</v>
-      </c>
-      <c r="L3">
-        <v>0.69881109643328898</v>
-      </c>
-      <c r="M3">
-        <v>0.95940427487588598</v>
-      </c>
-      <c r="N3">
-        <v>0.280213918411513</v>
-      </c>
-      <c r="O3">
-        <v>1.88377134509711E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>70.509605010350498</v>
-      </c>
-      <c r="C4">
-        <v>30.340118646621701</v>
-      </c>
-      <c r="D4">
-        <v>0.69543519741670301</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0.71818582122412999</v>
-      </c>
-      <c r="K4">
-        <v>0.67062967855570199</v>
-      </c>
-      <c r="L4">
-        <v>0.69749009247027705</v>
-      </c>
-      <c r="M4">
-        <v>1.0819416319555599</v>
-      </c>
-      <c r="N4">
-        <v>0.65753451470941304</v>
-      </c>
-      <c r="O4">
-        <v>1.9469011644762901E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>70.886246919631901</v>
-      </c>
-      <c r="C5">
-        <v>27.858318408330199</v>
-      </c>
-      <c r="D5">
-        <v>0.70262733010421197</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0.72082782915015398</v>
-      </c>
-      <c r="K5">
-        <v>0.67635402906208697</v>
-      </c>
-      <c r="L5">
-        <v>0.71070013210039595</v>
-      </c>
-      <c r="M5">
-        <v>1.6102048659556001</v>
-      </c>
-      <c r="N5">
-        <v>0.43047200949786801</v>
-      </c>
-      <c r="O5">
-        <v>1.9032556714229099E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>66.801719983418707</v>
-      </c>
-      <c r="C6">
-        <v>27.8163499832153</v>
-      </c>
-      <c r="D6">
-        <v>0.69602231028915296</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0.71708498458828696</v>
-      </c>
-      <c r="K6">
-        <v>0.67107001321003901</v>
-      </c>
-      <c r="L6">
-        <v>0.69991193306913202</v>
-      </c>
-      <c r="M6">
-        <v>1.3054806367463501</v>
-      </c>
-      <c r="N6">
-        <v>0.28436774797373199</v>
-      </c>
-      <c r="O6">
-        <v>1.8985806483847002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>94.123725970586094</v>
-      </c>
-      <c r="C7">
-        <v>29.255850791931099</v>
-      </c>
-      <c r="D7">
-        <v>0.70387494495816805</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0.01</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.72060766182298497</v>
-      </c>
-      <c r="K7">
-        <v>0.67899603698811095</v>
-      </c>
-      <c r="L7">
-        <v>0.712021136063408</v>
-      </c>
-      <c r="M7">
-        <v>3.9845925851661002</v>
-      </c>
-      <c r="N7">
-        <v>0.33033268112988401</v>
-      </c>
-      <c r="O7">
-        <v>1.79378956865422E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6649,13 +8632,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>85.783437967300401</v>
+        <v>38.133126020431497</v>
       </c>
       <c r="C2">
-        <v>36.836939891179398</v>
+        <v>15.3772223790486</v>
       </c>
       <c r="D2">
-        <v>0.59313077939233805</v>
+        <v>0.58975488037575197</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6673,22 +8656,22 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.58784676354028997</v>
+        <v>0.58454425363275997</v>
       </c>
       <c r="K2">
-        <v>0.59885512989872303</v>
+        <v>0.59555261999119302</v>
       </c>
       <c r="L2">
-        <v>0.59269044473800003</v>
+        <v>0.58916776750330202</v>
       </c>
       <c r="M2">
-        <v>0.18067313372258001</v>
+        <v>1.01442430498354</v>
       </c>
       <c r="N2">
-        <v>0.23774502786360199</v>
+        <v>0.52537473631993004</v>
       </c>
       <c r="O2">
-        <v>4.5049197866498603E-3</v>
+        <v>4.5132810396365502E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -6696,13 +8679,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75.189435243606496</v>
+        <v>33.644562721252399</v>
       </c>
       <c r="C3">
-        <v>32.157245715459098</v>
+        <v>82.382948637008596</v>
       </c>
       <c r="D3">
-        <v>0.69653603405254605</v>
+        <v>0.697343314252165</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6717,25 +8700,25 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0.71642448260678104</v>
+        <v>0.72016732716864795</v>
       </c>
       <c r="K3">
-        <v>0.67437252311756901</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L3">
-        <v>0.69881109643328898</v>
+        <v>0.69837076177895197</v>
       </c>
       <c r="M3">
-        <v>1.2985669111260201</v>
+        <v>1.2744266396731601</v>
       </c>
       <c r="N3">
-        <v>0.50960051267811302</v>
+        <v>98.719586347082199</v>
       </c>
       <c r="O3">
-        <v>1.7242848872267399E-2</v>
+        <v>1.9069027062306801E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -6743,13 +8726,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.578737576802496</v>
+        <v>33.593770027160602</v>
       </c>
       <c r="C4">
-        <v>32.015949090321797</v>
+        <v>13.4736449718475</v>
       </c>
       <c r="D4">
-        <v>0.69565536474387202</v>
+        <v>0.69411419345369096</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -6767,22 +8750,22 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.715103478643769</v>
+        <v>0.71466314398943198</v>
       </c>
       <c r="K4">
-        <v>0.67349185380889398</v>
+        <v>0.66952884191985895</v>
       </c>
       <c r="L4">
-        <v>0.69837076177895197</v>
+        <v>0.69815059445178296</v>
       </c>
       <c r="M4">
-        <v>1.40806054857555</v>
+        <v>0.307629139687288</v>
       </c>
       <c r="N4">
-        <v>0.610538737932108</v>
+        <v>0.19765030364835801</v>
       </c>
       <c r="O4">
-        <v>1.70960398171267E-2</v>
+        <v>1.8645744922812998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -6790,13 +8773,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80.666984637578295</v>
+        <v>31.058151404062901</v>
       </c>
       <c r="C5">
-        <v>30.5815454324086</v>
+        <v>12.0565579732259</v>
       </c>
       <c r="D5">
-        <v>0.70270071921326804</v>
+        <v>0.70402172317627998</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6814,22 +8797,22 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.72126816380449099</v>
+        <v>0.72214883311316602</v>
       </c>
       <c r="K5">
-        <v>0.67789520035226702</v>
+        <v>0.68295904887714598</v>
       </c>
       <c r="L5">
-        <v>0.708938793483047</v>
+        <v>0.70695728753852904</v>
       </c>
       <c r="M5">
-        <v>2.6150282040022801</v>
+        <v>0.29050021277173099</v>
       </c>
       <c r="N5">
-        <v>0.64061370427439501</v>
+        <v>0.16937177658195099</v>
       </c>
       <c r="O5">
-        <v>1.8248080585885101E-2</v>
+        <v>1.6133256557188801E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -6837,13 +8820,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72.014646689097006</v>
+        <v>32.958420435587499</v>
       </c>
       <c r="C6">
-        <v>30.524349848429299</v>
+        <v>12.6413482824961</v>
       </c>
       <c r="D6">
-        <v>0.697123146924996</v>
+        <v>0.69462791721708494</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -6858,25 +8841,25 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>0.71752531924262397</v>
+        <v>0.71642448260678104</v>
       </c>
       <c r="K6">
-        <v>0.67305151915455697</v>
+        <v>0.67195068251871404</v>
       </c>
       <c r="L6">
-        <v>0.70079260237780705</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="M6">
-        <v>1.64314296366404</v>
+        <v>1.06623808697648</v>
       </c>
       <c r="N6">
-        <v>0.67655342158207299</v>
+        <v>0.32808037818872299</v>
       </c>
       <c r="O6">
-        <v>1.8340817885406299E-2</v>
+        <v>1.8167028878195102E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -6884,13 +8867,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107.629884004592</v>
+        <v>41.534579992294297</v>
       </c>
       <c r="C7">
-        <v>32.142752011616999</v>
+        <v>12.8846093018849</v>
       </c>
       <c r="D7">
-        <v>0.70306766475854898</v>
+        <v>0.70915896081021501</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -6908,22 +8891,22 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.71774548656979298</v>
+        <v>0.72369000440334597</v>
       </c>
       <c r="K7">
-        <v>0.68053720827829101</v>
+        <v>0.68912373403786797</v>
       </c>
       <c r="L7">
-        <v>0.71092029942756496</v>
+        <v>0.71466314398943198</v>
       </c>
       <c r="M7">
-        <v>3.6954683266292698</v>
+        <v>1.47697022485679</v>
       </c>
       <c r="N7">
-        <v>0.115966543062252</v>
+        <v>0.30379696223699199</v>
       </c>
       <c r="O7">
-        <v>1.6173268001823699E-2</v>
+        <v>1.4638505982456E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6947,7 +8930,8 @@
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -7001,13 +8985,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50.289266665776502</v>
+        <v>72.981989622116004</v>
       </c>
       <c r="C2">
-        <v>22.329266071319498</v>
+        <v>31.3646740118662</v>
       </c>
       <c r="D2">
-        <v>0.59423161602818098</v>
+        <v>0.590635549684426</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7016,31 +9000,31 @@
         <v>1E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.58982826948480804</v>
+        <v>0.58718626155878395</v>
       </c>
       <c r="K2">
-        <v>0.59863496257155402</v>
+        <v>0.59423161602818098</v>
       </c>
       <c r="L2">
-        <v>0.59423161602818098</v>
+        <v>0.59048877146631396</v>
       </c>
       <c r="M2">
-        <v>0.120597388159733</v>
+        <v>0.52671648009232597</v>
       </c>
       <c r="N2">
-        <v>2.68156046451021E-2</v>
+        <v>0.422092066373353</v>
       </c>
       <c r="O2">
-        <v>3.59531739730392E-3</v>
+        <v>2.8781258698264201E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7048,13 +9032,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44.517363150914498</v>
+        <v>64.415209611256898</v>
       </c>
       <c r="C3">
-        <v>19.459531068801802</v>
+        <v>26.788017352421999</v>
       </c>
       <c r="D3">
-        <v>0.69763687068838898</v>
+        <v>0.69756348157933301</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7063,31 +9047,31 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0.71532364597093701</v>
+        <v>0.71994715984147895</v>
       </c>
       <c r="K3">
-        <v>0.67635402906208697</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L3">
-        <v>0.70123293703214395</v>
+        <v>0.699251431087626</v>
       </c>
       <c r="M3">
-        <v>0.60382680830323199</v>
+        <v>0.64469129135459202</v>
       </c>
       <c r="N3">
-        <v>0.20911512721389799</v>
+        <v>0.16805721952951599</v>
       </c>
       <c r="O3">
-        <v>1.6111207907688701E-2</v>
+        <v>1.90028198749937E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -7095,13 +9079,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44.624171495437601</v>
+        <v>65.085086345672593</v>
       </c>
       <c r="C4">
-        <v>19.538538614908799</v>
+        <v>28.357128620147702</v>
       </c>
       <c r="D4">
-        <v>0.69382063701746599</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -7110,31 +9094,31 @@
         <v>1E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.71334214002642005</v>
+        <v>0.71532364597093701</v>
       </c>
       <c r="K4">
-        <v>0.67040951122853298</v>
+        <v>0.67239101717305105</v>
       </c>
       <c r="L4">
-        <v>0.69771025979744605</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M4">
-        <v>0.63162989646847501</v>
+        <v>1.27427666867115</v>
       </c>
       <c r="N4">
-        <v>0.26599084203892798</v>
+        <v>0.68980458760597196</v>
       </c>
       <c r="O4">
-        <v>1.7741655839711899E-2</v>
+        <v>1.7682054606130499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -7142,13 +9126,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48.892688274383502</v>
+        <v>62.507666031519499</v>
       </c>
       <c r="C5">
-        <v>18.638858636220199</v>
+        <v>25.524518728256201</v>
       </c>
       <c r="D5">
-        <v>0.702553940995156</v>
+        <v>0.70424189050344899</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -7157,31 +9141,31 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.71598414795244303</v>
+        <v>0.72038749449581596</v>
       </c>
       <c r="K5">
-        <v>0.68295904887714598</v>
+        <v>0.68075737560546001</v>
       </c>
       <c r="L5">
-        <v>0.708718626155878</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M5">
-        <v>1.5782904165282099</v>
+        <v>1.01815835077146</v>
       </c>
       <c r="N5">
-        <v>0.323575529052327</v>
+        <v>0.78181430810335995</v>
       </c>
       <c r="O5">
-        <v>1.4169610664644601E-2</v>
+        <v>1.69908071375168E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -7189,13 +9173,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41.984801451365101</v>
+        <v>61.620828866958597</v>
       </c>
       <c r="C6">
-        <v>18.163538217544499</v>
+        <v>26.3535909652709</v>
       </c>
       <c r="D6">
-        <v>0.696169088507265</v>
+        <v>0.69580214296198395</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -7204,31 +9188,31 @@
         <v>1E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.71356230735358805</v>
+        <v>0.71400264200792596</v>
       </c>
       <c r="K6">
-        <v>0.67481285777190603</v>
+        <v>0.67459269044473802</v>
       </c>
       <c r="L6">
-        <v>0.70013210039630103</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M6">
-        <v>0.79702353560519801</v>
+        <v>1.1068378386737801</v>
       </c>
       <c r="N6">
-        <v>0.34286390695853097</v>
+        <v>0.77348373171379903</v>
       </c>
       <c r="O6">
-        <v>1.6065678907644598E-2</v>
+        <v>1.6229118302145702E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -7236,13 +9220,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66.197283585866202</v>
+        <v>82.250488440195696</v>
       </c>
       <c r="C7">
-        <v>20.146304210027001</v>
+        <v>26.543932914733801</v>
       </c>
       <c r="D7">
-        <v>0.70321444297666202</v>
+        <v>0.70622339644796694</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -7251,31 +9235,31 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.71378247468075695</v>
+        <v>0.724790841039189</v>
       </c>
       <c r="K7">
         <v>0.68229854689563996</v>
       </c>
       <c r="L7">
-        <v>0.71356230735358805</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M7">
-        <v>2.7571983803045299</v>
+        <v>2.8634230589712701</v>
       </c>
       <c r="N7">
-        <v>0.26046881192697602</v>
+        <v>0.53421071509289397</v>
       </c>
       <c r="O7">
-        <v>1.47900450769441E-2</v>
+        <v>1.7756221563786499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7299,7 +9283,8 @@
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -7353,13 +9338,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53.111356814702297</v>
+        <v>79.308686574300097</v>
       </c>
       <c r="C2">
-        <v>23.933893918991</v>
+        <v>34.063157717386801</v>
       </c>
       <c r="D2">
-        <v>0.59540584177307998</v>
+        <v>0.59129605166593202</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7368,31 +9353,31 @@
         <v>1E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.58982826948480804</v>
+        <v>0.585424922941435</v>
       </c>
       <c r="K2">
-        <v>0.59995596653456595</v>
+        <v>0.59643328929986705</v>
       </c>
       <c r="L2">
-        <v>0.59643328929986705</v>
+        <v>0.59202994275649401</v>
       </c>
       <c r="M2">
-        <v>4.6611061743333397E-2</v>
+        <v>0.197201373146594</v>
       </c>
       <c r="N2">
-        <v>1.2555282762949101E-2</v>
+        <v>0.126201928780728</v>
       </c>
       <c r="O2">
-        <v>4.1979596788712902E-3</v>
+        <v>4.52400851531559E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7400,13 +9385,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47.098129113515199</v>
+        <v>69.203185319900498</v>
       </c>
       <c r="C3">
-        <v>20.8708790938059</v>
+        <v>29.680335680643701</v>
       </c>
       <c r="D3">
-        <v>0.69778364890650202</v>
+        <v>0.69682959048877102</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7415,31 +9400,31 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0.71246147071774502</v>
+        <v>0.71884632320563602</v>
       </c>
       <c r="K3">
-        <v>0.67745486569793001</v>
+        <v>0.67283135182738796</v>
       </c>
       <c r="L3">
-        <v>0.70343461030383003</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M3">
-        <v>0.57836636776746497</v>
+        <v>0.95940427487588598</v>
       </c>
       <c r="N3">
-        <v>0.28598603048085303</v>
+        <v>0.280213918411513</v>
       </c>
       <c r="O3">
-        <v>1.48394883624494E-2</v>
+        <v>1.88377134509711E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -7447,13 +9432,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47.204359213511097</v>
+        <v>70.509605010350498</v>
       </c>
       <c r="C4">
-        <v>20.955801963806099</v>
+        <v>30.340118646621701</v>
       </c>
       <c r="D4">
-        <v>0.69653603405254605</v>
+        <v>0.69543519741670301</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -7462,31 +9447,31 @@
         <v>1E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.71136063408190198</v>
+        <v>0.71818582122412999</v>
       </c>
       <c r="K4">
-        <v>0.67525319242624304</v>
+        <v>0.67062967855570199</v>
       </c>
       <c r="L4">
-        <v>0.70299427564949302</v>
+        <v>0.69749009247027705</v>
       </c>
       <c r="M4">
-        <v>0.68646881905043</v>
+        <v>1.0819416319555599</v>
       </c>
       <c r="N4">
-        <v>0.31681007952404899</v>
+        <v>0.65753451470941304</v>
       </c>
       <c r="O4">
-        <v>1.54319689632181E-2</v>
+        <v>1.9469011644762901E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -7494,13 +9479,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53.949284315109203</v>
+        <v>70.886246919631901</v>
       </c>
       <c r="C5">
-        <v>20.269028504689501</v>
+        <v>27.858318408330199</v>
       </c>
       <c r="D5">
-        <v>0.701599882577425</v>
+        <v>0.70262733010421197</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -7509,31 +9494,31 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.71334214002642005</v>
+        <v>0.72082782915015398</v>
       </c>
       <c r="K5">
-        <v>0.68229854689563996</v>
+        <v>0.67635402906208697</v>
       </c>
       <c r="L5">
-        <v>0.70915896081021501</v>
+        <v>0.71070013210039595</v>
       </c>
       <c r="M5">
-        <v>1.6475723808996601</v>
+        <v>1.6102048659556001</v>
       </c>
       <c r="N5">
-        <v>0.28279824725887998</v>
+        <v>0.43047200949786801</v>
       </c>
       <c r="O5">
-        <v>1.37545366192255E-2</v>
+        <v>1.9032556714229099E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -7541,13 +9526,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>44.570408026377301</v>
+        <v>66.801719983418707</v>
       </c>
       <c r="C6">
-        <v>19.44646859169</v>
+        <v>27.8163499832153</v>
       </c>
       <c r="D6">
-        <v>0.69660942316160201</v>
+        <v>0.69602231028915296</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -7556,31 +9541,31 @@
         <v>1E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.71158080140906999</v>
+        <v>0.71708498458828696</v>
       </c>
       <c r="K6">
-        <v>0.67503302509907503</v>
+        <v>0.67107001321003901</v>
       </c>
       <c r="L6">
-        <v>0.70321444297666202</v>
+        <v>0.69991193306913202</v>
       </c>
       <c r="M6">
-        <v>0.74650584537904796</v>
+        <v>1.3054806367463501</v>
       </c>
       <c r="N6">
-        <v>0.37028543971283401</v>
+        <v>0.28436774797373199</v>
       </c>
       <c r="O6">
-        <v>1.5634464138975401E-2</v>
+        <v>1.8985806483847002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -7588,13 +9573,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94.568666378656999</v>
+        <v>94.123725970586094</v>
       </c>
       <c r="C7">
-        <v>22.136420090993202</v>
+        <v>29.255850791931099</v>
       </c>
       <c r="D7">
-        <v>0.70292088654043705</v>
+        <v>0.70387494495816805</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -7603,31 +9588,31 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.71290180537208203</v>
+        <v>0.72060766182298497</v>
       </c>
       <c r="K7">
-        <v>0.68009687362395399</v>
+        <v>0.67899603698811095</v>
       </c>
       <c r="L7">
-        <v>0.71576398062527502</v>
+        <v>0.712021136063408</v>
       </c>
       <c r="M7">
-        <v>2.8149678453500901</v>
+        <v>3.9845925851661002</v>
       </c>
       <c r="N7">
-        <v>0.29165907653342499</v>
+        <v>0.33033268112988401</v>
       </c>
       <c r="O7">
-        <v>1.6181258418385101E-2</v>
+        <v>1.79378956865422E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7651,7 +9636,8 @@
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -7705,13 +9691,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56.485668977101597</v>
+        <v>85.783437967300401</v>
       </c>
       <c r="C2">
-        <v>25.5462249914805</v>
+        <v>36.836939891179398</v>
       </c>
       <c r="D2">
-        <v>0.59555261999119302</v>
+        <v>0.59313077939233805</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7720,31 +9706,31 @@
         <v>1E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.59202994275649401</v>
+        <v>0.58784676354028997</v>
       </c>
       <c r="K2">
-        <v>0.598194627917217</v>
+        <v>0.59885512989872303</v>
       </c>
       <c r="L2">
-        <v>0.59643328929986705</v>
+        <v>0.59269044473800003</v>
       </c>
       <c r="M2">
-        <v>8.0046339948291495E-2</v>
+        <v>0.18067313372258001</v>
       </c>
       <c r="N2">
-        <v>3.8257174370708802E-2</v>
+        <v>0.23774502786360199</v>
       </c>
       <c r="O2">
-        <v>2.5926202455094499E-3</v>
+        <v>4.5049197866498603E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7752,13 +9738,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50.442092418670597</v>
+        <v>75.189435243606496</v>
       </c>
       <c r="C3">
-        <v>22.392906188964801</v>
+        <v>32.157245715459098</v>
       </c>
       <c r="D3">
-        <v>0.69815059445178296</v>
+        <v>0.69653603405254605</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7767,31 +9753,31 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0.71378247468075695</v>
+        <v>0.71642448260678104</v>
       </c>
       <c r="K3">
-        <v>0.67701453104359299</v>
+        <v>0.67437252311756901</v>
       </c>
       <c r="L3">
-        <v>0.70365477763099904</v>
+        <v>0.69881109643328898</v>
       </c>
       <c r="M3">
-        <v>0.58017158654211198</v>
+        <v>1.2985669111260201</v>
       </c>
       <c r="N3">
-        <v>0.28234515537962501</v>
+        <v>0.50960051267811302</v>
       </c>
       <c r="O3">
-        <v>1.55068252538293E-2</v>
+        <v>1.7242848872267399E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -7799,13 +9785,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50.352616389592399</v>
+        <v>76.578737576802496</v>
       </c>
       <c r="C4">
-        <v>22.348772128423001</v>
+        <v>32.015949090321797</v>
       </c>
       <c r="D4">
-        <v>0.69550858652575898</v>
+        <v>0.69565536474387202</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -7814,31 +9800,31 @@
         <v>1E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0.71114046675473297</v>
+        <v>0.715103478643769</v>
       </c>
       <c r="K4">
-        <v>0.67283135182738796</v>
+        <v>0.67349185380889398</v>
       </c>
       <c r="L4">
-        <v>0.702553940995156</v>
+        <v>0.69837076177895197</v>
       </c>
       <c r="M4">
-        <v>0.75561689096226903</v>
+        <v>1.40806054857555</v>
       </c>
       <c r="N4">
-        <v>0.33203704687125202</v>
+        <v>0.610538737932108</v>
       </c>
       <c r="O4">
-        <v>1.6413913535548899E-2</v>
+        <v>1.70960398171267E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -7846,13 +9832,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.1429108778635</v>
+        <v>80.666984637578295</v>
       </c>
       <c r="C5">
-        <v>22.070303599039701</v>
+        <v>30.5815454324086</v>
       </c>
       <c r="D5">
-        <v>0.699471598414795</v>
+        <v>0.70270071921326804</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -7861,31 +9847,31 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.71246147071774502</v>
+        <v>0.72126816380449099</v>
       </c>
       <c r="K5">
-        <v>0.67767503302509902</v>
+        <v>0.67789520035226702</v>
       </c>
       <c r="L5">
-        <v>0.70827829150154098</v>
+        <v>0.708938793483047</v>
       </c>
       <c r="M5">
-        <v>2.3367847279117901</v>
+        <v>2.6150282040022801</v>
       </c>
       <c r="N5">
-        <v>0.37997430599276599</v>
+        <v>0.64061370427439501</v>
       </c>
       <c r="O5">
-        <v>1.5506825253829201E-2</v>
+        <v>1.8248080585885101E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -7893,13 +9879,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>47.665170828501303</v>
+        <v>72.014646689097006</v>
       </c>
       <c r="C6">
-        <v>20.755410989125501</v>
+        <v>30.524349848429299</v>
       </c>
       <c r="D6">
-        <v>0.69528841919859097</v>
+        <v>0.697123146924996</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -7908,31 +9894,31 @@
         <v>1E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0.70937912813738402</v>
+        <v>0.71752531924262397</v>
       </c>
       <c r="K6">
-        <v>0.6741523557904</v>
+        <v>0.67305151915455697</v>
       </c>
       <c r="L6">
-        <v>0.70233377366798699</v>
+        <v>0.70079260237780705</v>
       </c>
       <c r="M6">
-        <v>0.87706892831953798</v>
+        <v>1.64314296366404</v>
       </c>
       <c r="N6">
-        <v>0.31538857376162899</v>
+        <v>0.67655342158207299</v>
       </c>
       <c r="O6">
-        <v>1.52197051481764E-2</v>
+        <v>1.8340817885406299E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -7940,13 +9926,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>112.32906794548001</v>
+        <v>107.629884004592</v>
       </c>
       <c r="C7">
-        <v>24.128863970438601</v>
+        <v>32.142752011616999</v>
       </c>
       <c r="D7">
-        <v>0.69998532217818799</v>
+        <v>0.70306766475854898</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -7955,31 +9941,31 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.71025979744605905</v>
+        <v>0.71774548656979298</v>
       </c>
       <c r="K7">
-        <v>0.677234698370761</v>
+        <v>0.68053720827829101</v>
       </c>
       <c r="L7">
-        <v>0.71246147071774502</v>
+        <v>0.71092029942756496</v>
       </c>
       <c r="M7">
-        <v>5.7358908761731602</v>
+        <v>3.6954683266292698</v>
       </c>
       <c r="N7">
-        <v>0.37498814032383398</v>
+        <v>0.115966543062252</v>
       </c>
       <c r="O7">
-        <v>1.6112210773594701E-2</v>
+        <v>1.6173268001823699E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="3" r:id="rId1"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="26">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -533,7 +533,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>WindowComparison!$B$14</c:f>
+              <c:f>WindowComparison!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -566,35 +566,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WindowComparison!$A$15:$A$23</c:f>
+              <c:f>WindowComparison!$A$18:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>27.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -602,35 +611,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WindowComparison!$B$15:$B$23</c:f>
+              <c:f>WindowComparison!$B$18:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.683766329076765</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.686995449875238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.693894026126522</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.69976515485102</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.70343461030383</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.70402172317628</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.704241890503449</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.702627330104212</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.702700719213268</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>0.702553940995156</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.701599882577425</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0.699471598414795</c:v>
                 </c:pt>
               </c:numCache>
@@ -646,11 +664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1068993680"/>
-        <c:axId val="1068995312"/>
+        <c:axId val="1116965392"/>
+        <c:axId val="1068310912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1068993680"/>
+        <c:axId val="1116965392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,12 +724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068995312"/>
+        <c:crossAx val="1068310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1068995312"/>
+        <c:axId val="1068310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068993680"/>
+        <c:crossAx val="1116965392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1376,20 +1394,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3134,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6575,10 +6593,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6684,16 +6702,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>49.129798253377203</v>
+        <v>18.374215920766101</v>
       </c>
       <c r="C4">
-        <v>18.966204643249501</v>
+        <v>7.3404917716979901</v>
       </c>
       <c r="D4">
-        <v>0.69976515485101998</v>
+        <v>0.68699544987523797</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -6711,36 +6729,36 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>0.72082782915015398</v>
+        <v>0.70717745486569705</v>
       </c>
       <c r="K4">
-        <v>0.67437252311756901</v>
+        <v>0.66292382210479905</v>
       </c>
       <c r="L4">
-        <v>0.70409511228533594</v>
+        <v>0.69088507265521704</v>
       </c>
       <c r="M4">
-        <v>1.6244200507758499</v>
+        <v>0.199029629380016</v>
       </c>
       <c r="N4">
-        <v>0.17835138844311499</v>
+        <v>0.15360987080013</v>
       </c>
       <c r="O4">
-        <v>1.9210852196653801E-2</v>
+        <v>1.8274624978587301E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>55.345610380172701</v>
+        <v>20.9596690336863</v>
       </c>
       <c r="C5">
-        <v>21.001344998677499</v>
+        <v>8.5508293310801093</v>
       </c>
       <c r="D5">
-        <v>0.70343461030383003</v>
+        <v>0.69389402612652196</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -6758,36 +6776,36 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.72148833113166</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="K5">
-        <v>0.68163804491413404</v>
+        <v>0.67459269044473802</v>
       </c>
       <c r="L5">
-        <v>0.70717745486569705</v>
+        <v>0.69550858652575898</v>
       </c>
       <c r="M5">
-        <v>0.67979027652456603</v>
+        <v>0.33728865664275998</v>
       </c>
       <c r="N5">
-        <v>0.83812879692982101</v>
+        <v>0.16189204455213499</v>
       </c>
       <c r="O5">
-        <v>1.64826776134906E-2</v>
+        <v>1.51434296454389E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>62.507666031519499</v>
+        <v>49.129798253377203</v>
       </c>
       <c r="C6">
-        <v>25.524518728256201</v>
+        <v>18.966204643249501</v>
       </c>
       <c r="D6">
-        <v>0.70424189050344899</v>
+        <v>0.69976515485101998</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -6805,36 +6823,36 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>0.72038749449581596</v>
+        <v>0.72082782915015398</v>
       </c>
       <c r="K6">
-        <v>0.68075737560546001</v>
+        <v>0.67437252311756901</v>
       </c>
       <c r="L6">
-        <v>0.71158080140906999</v>
+        <v>0.70409511228533594</v>
       </c>
       <c r="M6">
-        <v>1.01815835077146</v>
+        <v>1.6244200507758499</v>
       </c>
       <c r="N6">
-        <v>0.78181430810335995</v>
+        <v>0.17835138844311499</v>
       </c>
       <c r="O6">
-        <v>1.69908071375168E-2</v>
+        <v>1.9210852196653801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>70.886246919631901</v>
+        <v>55.345610380172701</v>
       </c>
       <c r="C7">
-        <v>27.858318408330199</v>
+        <v>21.001344998677499</v>
       </c>
       <c r="D7">
-        <v>0.70262733010421197</v>
+        <v>0.70343461030383003</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -6852,36 +6870,36 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>0.72082782915015398</v>
+        <v>0.72148833113166</v>
       </c>
       <c r="K7">
-        <v>0.67635402906208697</v>
+        <v>0.68163804491413404</v>
       </c>
       <c r="L7">
-        <v>0.71070013210039595</v>
+        <v>0.70717745486569705</v>
       </c>
       <c r="M7">
-        <v>1.6102048659556001</v>
+        <v>0.67979027652456603</v>
       </c>
       <c r="N7">
-        <v>0.43047200949786801</v>
+        <v>0.83812879692982101</v>
       </c>
       <c r="O7">
-        <v>1.9032556714229099E-2</v>
+        <v>1.64826776134906E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>80.666984637578295</v>
+        <v>31.058151404062901</v>
       </c>
       <c r="C8">
-        <v>30.5815454324086</v>
+        <v>12.0565579732259</v>
       </c>
       <c r="D8">
-        <v>0.70270071921326804</v>
+        <v>0.70402172317627998</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -6899,36 +6917,36 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <v>0.72126816380449099</v>
+        <v>0.72214883311316602</v>
       </c>
       <c r="K8">
-        <v>0.67789520035226702</v>
+        <v>0.68295904887714598</v>
       </c>
       <c r="L8">
-        <v>0.708938793483047</v>
+        <v>0.70695728753852904</v>
       </c>
       <c r="M8">
-        <v>2.6150282040022801</v>
+        <v>0.29050021277173099</v>
       </c>
       <c r="N8">
-        <v>0.64061370427439501</v>
+        <v>0.16937177658195099</v>
       </c>
       <c r="O8">
-        <v>1.8248080585885101E-2</v>
+        <v>1.6133256557188801E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>48.892688274383502</v>
+        <v>62.507666031519499</v>
       </c>
       <c r="C9">
-        <v>18.638858636220199</v>
+        <v>25.524518728256201</v>
       </c>
       <c r="D9">
-        <v>0.702553940995156</v>
+        <v>0.70424189050344899</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -6937,45 +6955,45 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9">
-        <v>0.71598414795244303</v>
+        <v>0.72038749449581596</v>
       </c>
       <c r="K9">
-        <v>0.68295904887714598</v>
+        <v>0.68075737560546001</v>
       </c>
       <c r="L9">
-        <v>0.708718626155878</v>
+        <v>0.71158080140906999</v>
       </c>
       <c r="M9">
-        <v>1.5782904165282099</v>
+        <v>1.01815835077146</v>
       </c>
       <c r="N9">
-        <v>0.323575529052327</v>
+        <v>0.78181430810335995</v>
       </c>
       <c r="O9">
-        <v>1.4169610664644601E-2</v>
+        <v>1.69908071375168E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>53.949284315109203</v>
+        <v>70.886246919631901</v>
       </c>
       <c r="C10">
-        <v>20.269028504689501</v>
+        <v>27.858318408330199</v>
       </c>
       <c r="D10">
-        <v>0.701599882577425</v>
+        <v>0.70262733010421197</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -6984,45 +7002,45 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>0.71334214002642005</v>
+        <v>0.72082782915015398</v>
       </c>
       <c r="K10">
-        <v>0.68229854689563996</v>
+        <v>0.67635402906208697</v>
       </c>
       <c r="L10">
-        <v>0.70915896081021501</v>
+        <v>0.71070013210039595</v>
       </c>
       <c r="M10">
-        <v>1.6475723808996601</v>
+        <v>1.6102048659556001</v>
       </c>
       <c r="N10">
-        <v>0.28279824725887998</v>
+        <v>0.43047200949786801</v>
       </c>
       <c r="O10">
-        <v>1.37545366192255E-2</v>
+        <v>1.9032556714229099E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>60.1429108778635</v>
+        <v>80.666984637578295</v>
       </c>
       <c r="C11">
-        <v>22.070303599039701</v>
+        <v>30.5815454324086</v>
       </c>
       <c r="D11">
-        <v>0.699471598414795</v>
+        <v>0.70270071921326804</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -7031,110 +7049,275 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
+        <v>0.72126816380449099</v>
+      </c>
+      <c r="K11">
+        <v>0.67789520035226702</v>
+      </c>
+      <c r="L11">
+        <v>0.708938793483047</v>
+      </c>
+      <c r="M11">
+        <v>2.6150282040022801</v>
+      </c>
+      <c r="N11">
+        <v>0.64061370427439501</v>
+      </c>
+      <c r="O11">
+        <v>1.8248080585885101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>48.892688274383502</v>
+      </c>
+      <c r="C12">
+        <v>18.638858636220199</v>
+      </c>
+      <c r="D12">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.71598414795244303</v>
+      </c>
+      <c r="K12">
+        <v>0.68295904887714598</v>
+      </c>
+      <c r="L12">
+        <v>0.708718626155878</v>
+      </c>
+      <c r="M12">
+        <v>1.5782904165282099</v>
+      </c>
+      <c r="N12">
+        <v>0.323575529052327</v>
+      </c>
+      <c r="O12">
+        <v>1.4169610664644601E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>53.949284315109203</v>
+      </c>
+      <c r="C13">
+        <v>20.269028504689501</v>
+      </c>
+      <c r="D13">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.71334214002642005</v>
+      </c>
+      <c r="K13">
+        <v>0.68229854689563996</v>
+      </c>
+      <c r="L13">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="M13">
+        <v>1.6475723808996601</v>
+      </c>
+      <c r="N13">
+        <v>0.28279824725887998</v>
+      </c>
+      <c r="O13">
+        <v>1.37545366192255E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>60.1429108778635</v>
+      </c>
+      <c r="C14">
+        <v>22.070303599039701</v>
+      </c>
+      <c r="D14">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <v>0.71246147071774502</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>0.67767503302509902</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <v>0.70827829150154098</v>
       </c>
-      <c r="M11">
+      <c r="M14">
         <v>2.3367847279117901</v>
       </c>
-      <c r="N11">
+      <c r="N14">
         <v>0.37997430599276599</v>
       </c>
-      <c r="O11">
+      <c r="O14">
         <v>1.5506825253829201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>0.68376632907676504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.69976515485101998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0.70343461030383003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>0.70424189050344899</v>
+        <v>0.68376632907676504</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>0.70262733010421197</v>
+        <v>0.68699544987523797</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>0.70270071921326804</v>
+        <v>0.69389402612652196</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>0.702553940995156</v>
+        <v>0.69976515485101998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>0.701599882577425</v>
+        <v>0.70343461030383003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.70402172317627998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.70424189050344899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.70262733010421197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.70270071921326804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.702553940995156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0.701599882577425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>0.699471598414795</v>
       </c>
     </row>
@@ -7149,7 +7332,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
+      <selection activeCell="B5" sqref="B5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7502,7 +7685,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
+      <selection activeCell="B5" sqref="B5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8566,7 +8749,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
+      <selection activeCell="B5" sqref="B5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="3" r:id="rId1"/>
@@ -3152,53 +3152,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6595,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <sheet name="29" sheetId="11" r:id="rId11"/>
     <sheet name="31" sheetId="12" r:id="rId12"/>
     <sheet name="Big Compariso" sheetId="13" r:id="rId13"/>
-    <sheet name="WindowComparison" sheetId="9" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="19" r:id="rId14"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId15"/>
+    <sheet name="WindowComparison" sheetId="9" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_11_improved" localSheetId="1">'11'!$A$1:$O$7</definedName>
@@ -311,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="49">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -390,6 +392,75 @@
   <si>
     <t>Window Size</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Mean fit time</t>
+  </si>
+  <si>
+    <t>Mean test score</t>
+  </si>
+  <si>
+    <t>WinSize 9</t>
+  </si>
+  <si>
+    <t>WinSize 11</t>
+  </si>
+  <si>
+    <t>WinSize 13</t>
+  </si>
+  <si>
+    <t>WinSize 15</t>
+  </si>
+  <si>
+    <t>WinSize 17</t>
+  </si>
+  <si>
+    <t>WinSize 19</t>
+  </si>
+  <si>
+    <t>WinSize 21</t>
+  </si>
+  <si>
+    <t>WinSize 23</t>
+  </si>
+  <si>
+    <t>WinSize 25</t>
+  </si>
+  <si>
+    <t>WinSize 27</t>
+  </si>
+  <si>
+    <t>WinSize 29</t>
+  </si>
+  <si>
+    <t>WinSize 31</t>
+  </si>
+  <si>
+    <t>C=1, Gamma = 0.001</t>
+  </si>
+  <si>
+    <t>C=1, Gamma = 0.01</t>
+  </si>
+  <si>
+    <t>C=5, Gamma = 0.001</t>
+  </si>
+  <si>
+    <t>C=5, Gamma = 0.01</t>
+  </si>
+  <si>
+    <t>C=10, Gamma = 0.001</t>
+  </si>
+  <si>
+    <t>C=10, Gamma = 0.01</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
 </sst>
 </file>
 
@@ -435,15 +506,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,20 +528,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,14 +586,39 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GridSearch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -525,6 +652,1626 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.575517393218846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.579113459562601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.583223249669749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58571847937766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.587479818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.589754880375752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.590635549684426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.591296051665932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.593130779392338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.594231616028181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59540584177308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.595552619991193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.684573609276383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.686481726111845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.687655951856744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.690958461764274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.693894026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.697343314252165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.697563481579333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.696829590488771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.696536034052546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.697636870688389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.697783648906502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.698150594451783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=5, Gamma = 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.683619550858652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.684500220167327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6877293409658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69161896374578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.693160135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.694114193453691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.695508586525759</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.695435197416703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.695655364743872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.693820637017466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.696536034052546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.695508586525759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=5, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.683766329076765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.686995449875238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.693894026126522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69976515485102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70343461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70402172317628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.704241890503449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.702627330104212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.702700719213268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.702553940995156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.701599882577425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.699471598414795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=10, Gamma = 0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.683619550858652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.684940554821664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.686922060766182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.688463232056362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.691545575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.694627917217085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.695802142961984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.696022310289153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.697123146924996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.696169088507265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.696609423161602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.695288419198591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C=10, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$G$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WinSize 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WinSize 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WinSize 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>WinSize 25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>WinSize 27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>WinSize 29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WinSize 31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$G$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.68831645383825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.697710259797446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.701086158814032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.704315279612505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.705195949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.709158960810215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.706223396447967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.703874944958168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.703067664758549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.703214442976662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.702920886540437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.699985322178188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1149215488"/>
+        <c:axId val="1149217264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1149215488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149217264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1149217264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Test Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149215488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GridSearch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C=1, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C=5, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C=5, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C=10, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C=10, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.587479818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.693894026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.693160135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70343461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.691545575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.705195949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C=1, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C=5, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C=5, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C=10, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C=10, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.589754880375752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.697343314252165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.694114193453691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70402172317628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.694627917217085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.709158960810215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C=1, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C=5, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C=5, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C=10, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C=10, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.590635549684426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.697563481579333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.695508586525759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.704241890503449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.695802142961984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.706223396447967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WinSize 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C=1, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C=1, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C=5, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C=5, Gamma = 0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C=10, Gamma = 0.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C=10, Gamma = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.591296051665932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.696829590488771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.695435197416703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.702627330104212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.696022310289153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.703874944958168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1118140928"/>
+        <c:axId val="1118532752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1118140928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118532752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1118532752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Test Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1118140928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -550,15 +2297,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -674,20 +2423,63 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Window Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -749,6 +2541,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Test Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -835,6 +2683,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -875,6 +2756,1012 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1394,16 +4281,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3152,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="A2:O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6593,10 +9550,1478 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="18" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.57551739321884599</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>0.57551739321884599</v>
+      </c>
+      <c r="H2">
+        <v>0.57911345956260096</v>
+      </c>
+      <c r="I2">
+        <v>0.58322324966974903</v>
+      </c>
+      <c r="J2">
+        <v>0.58571847937765997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.58747981800000004</v>
+      </c>
+      <c r="L2">
+        <v>0.58975488037575197</v>
+      </c>
+      <c r="M2">
+        <v>0.590635549684426</v>
+      </c>
+      <c r="N2">
+        <v>0.59129605166593202</v>
+      </c>
+      <c r="O2">
+        <v>0.59313077939233805</v>
+      </c>
+      <c r="P2">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="Q2">
+        <v>0.59540584177307998</v>
+      </c>
+      <c r="R2">
+        <v>0.59555261999119302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3">
+        <v>0.684573609276383</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>0.684573609276383</v>
+      </c>
+      <c r="H3">
+        <v>0.68648172611184499</v>
+      </c>
+      <c r="I3">
+        <v>0.687655951856744</v>
+      </c>
+      <c r="J3">
+        <v>0.690958461764274</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.69389402600000005</v>
+      </c>
+      <c r="L3">
+        <v>0.697343314252165</v>
+      </c>
+      <c r="M3">
+        <v>0.69756348157933301</v>
+      </c>
+      <c r="N3">
+        <v>0.69682959048877102</v>
+      </c>
+      <c r="O3">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="P3">
+        <v>0.69763687068838898</v>
+      </c>
+      <c r="Q3">
+        <v>0.69778364890650202</v>
+      </c>
+      <c r="R3">
+        <v>0.69815059445178296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="H4">
+        <v>0.68450022016732703</v>
+      </c>
+      <c r="I4">
+        <v>0.68772934096579996</v>
+      </c>
+      <c r="J4">
+        <v>0.69161896374578002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.69316013499999996</v>
+      </c>
+      <c r="L4">
+        <v>0.69411419345369096</v>
+      </c>
+      <c r="M4">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="N4">
+        <v>0.69543519741670301</v>
+      </c>
+      <c r="O4">
+        <v>0.69565536474387202</v>
+      </c>
+      <c r="P4">
+        <v>0.69382063701746599</v>
+      </c>
+      <c r="Q4">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="R4">
+        <v>0.69550858652575898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5">
+        <v>0.68376632907676504</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>0.68376632907676504</v>
+      </c>
+      <c r="H5">
+        <v>0.68699544987523797</v>
+      </c>
+      <c r="I5">
+        <v>0.69389402612652196</v>
+      </c>
+      <c r="J5">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.70343460999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.70402172317627998</v>
+      </c>
+      <c r="M5">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="N5">
+        <v>0.70262733010421197</v>
+      </c>
+      <c r="O5">
+        <v>0.70270071921326804</v>
+      </c>
+      <c r="P5">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="Q5">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="R5">
+        <v>0.699471598414795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0.683619550858652</v>
+      </c>
+      <c r="H6">
+        <v>0.68494055482166405</v>
+      </c>
+      <c r="I6">
+        <v>0.68692206076618201</v>
+      </c>
+      <c r="J6">
+        <v>0.68846323205636195</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.69154557500000002</v>
+      </c>
+      <c r="L6">
+        <v>0.69462791721708494</v>
+      </c>
+      <c r="M6">
+        <v>0.69580214296198395</v>
+      </c>
+      <c r="N6">
+        <v>0.69602231028915296</v>
+      </c>
+      <c r="O6">
+        <v>0.697123146924996</v>
+      </c>
+      <c r="P6">
+        <v>0.696169088507265</v>
+      </c>
+      <c r="Q6">
+        <v>0.69660942316160201</v>
+      </c>
+      <c r="R6">
+        <v>0.69528841919859097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7">
+        <v>0.68831645383825002</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.01</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0.68831645383825002</v>
+      </c>
+      <c r="H7">
+        <v>0.69771025979744605</v>
+      </c>
+      <c r="I7">
+        <v>0.70108615881403202</v>
+      </c>
+      <c r="J7">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.70519594900000004</v>
+      </c>
+      <c r="L7">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="M7">
+        <v>0.70622339644796694</v>
+      </c>
+      <c r="N7">
+        <v>0.70387494495816805</v>
+      </c>
+      <c r="O7">
+        <v>0.70306766475854898</v>
+      </c>
+      <c r="P7">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="Q7">
+        <v>0.70292088654043705</v>
+      </c>
+      <c r="R7">
+        <v>0.69998532217818799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.57911345956260096</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9">
+        <v>0.68648172611184499</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10">
+        <v>0.68450022016732703</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1">
+        <v>23</v>
+      </c>
+      <c r="O10" s="1">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11">
+        <v>0.68699544987523797</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <v>0.68494055482166405</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <v>0.69771025979744605</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.58322324966974903</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.687655951856744</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.68772934096579996</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0.69389402612652196</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0.68692206076618201</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0.70108615881403202</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.58571847937765997</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0.690958461764274</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0.69161896374578002</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>0.69976515485101998</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.68846323205636195</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>0.70431527961250495</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.58747981800000004</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.69389402600000005</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.69316013499999996</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.70343460999999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.69154557500000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.70519594900000004</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>0.58975488037575197</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>0.697343314252165</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>0.69411419345369096</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>0.70402172317627998</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>0.69462791721708494</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>0.590635549684426</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0.69756348157933301</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>0.69580214296198395</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>0.70622339644796694</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>0.59129605166593202</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>0.69682959048877102</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0.69543519741670301</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0.70262733010421197</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>0.69602231028915296</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>0.70387494495816805</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>0.59313077939233805</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>0.69565536474387202</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>0.70270071921326804</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>0.697123146924996</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>0.70306766475854898</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>0.59423161602818098</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>0.69763687068838898</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>0.69382063701746599</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59">
+        <v>0.702553940995156</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>0.696169088507265</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>0.70321444297666202</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>0.59540584177307998</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>0.69778364890650202</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>0.69653603405254605</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>0.701599882577425</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>0.69660942316160201</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>0.70292088654043705</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>0.59555261999119302</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>0.69815059445178296</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>0.699471598414795</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>0.69528841919859097</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>31</v>
+      </c>
+      <c r="B73">
+        <v>0.69998532217818799</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.58747981800000004</v>
+      </c>
+      <c r="C2">
+        <v>0.58975488037575197</v>
+      </c>
+      <c r="D2">
+        <v>0.590635549684426</v>
+      </c>
+      <c r="E2">
+        <v>0.59129605166593202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.69389402600000005</v>
+      </c>
+      <c r="C3">
+        <v>0.697343314252165</v>
+      </c>
+      <c r="D3">
+        <v>0.69756348157933301</v>
+      </c>
+      <c r="E3">
+        <v>0.69682959048877102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.69316013499999996</v>
+      </c>
+      <c r="C4">
+        <v>0.69411419345369096</v>
+      </c>
+      <c r="D4">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E4">
+        <v>0.69543519741670301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.70343460999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.70402172317627998</v>
+      </c>
+      <c r="D5">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="E5">
+        <v>0.70262733010421197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.69154557500000002</v>
+      </c>
+      <c r="C6">
+        <v>0.69462791721708494</v>
+      </c>
+      <c r="D6">
+        <v>0.69580214296198395</v>
+      </c>
+      <c r="E6">
+        <v>0.69602231028915296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.70519594900000004</v>
+      </c>
+      <c r="C7">
+        <v>0.70915896081021501</v>
+      </c>
+      <c r="D7">
+        <v>0.70622339644796694</v>
+      </c>
+      <c r="E7">
+        <v>0.70387494495816805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9099,19 +13524,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -9443,6 +13868,104 @@
       </c>
       <c r="O7">
         <v>1.7756221563786499E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.590635549684426</v>
+      </c>
+      <c r="E10" s="4">
+        <v>72.981989622116004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.69756348157933301</v>
+      </c>
+      <c r="E11" s="4">
+        <v>64.415209611256898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.69550858652575898</v>
+      </c>
+      <c r="E12" s="4">
+        <v>65.085086345672593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.70424189050344899</v>
+      </c>
+      <c r="E13" s="4">
+        <v>62.507666031519499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.69580214296198395</v>
+      </c>
+      <c r="E14" s="4">
+        <v>61.620828866958597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.70622339644796694</v>
+      </c>
+      <c r="E15" s="4">
+        <v>82.250488440195696</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -1612,10 +1612,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1698,9 +1698,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1778,9 +1776,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="55000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1858,9 +1854,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1938,9 +1932,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="98500"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2070,7 +2062,7 @@
         <c:axId val="1118532752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.55"/>
+          <c:min val="0.58"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2090,7 +2082,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2123,7 +2115,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2420,6 +2412,8 @@
         <c:axId val="1116965392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="31.0"/>
+          <c:min val="9.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2544,7 +2538,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2577,7 +2571,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2689,28 +2683,41 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -10886,7 +10893,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11020,8 +11027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Project/Datasets/GridScores/Combined.xlsx
+++ b/Project/Datasets/GridScores/Combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" tabRatio="500" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="9" sheetId="3" r:id="rId1"/>
@@ -1619,63 +1619,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>GridSearch</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6116,8 +6060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A2:O74"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9559,8 +9503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:R7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10892,11 +10836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -11028,7 +10975,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
